--- a/sofraco-back-end/documents/mandataire.xlsx
+++ b/sofraco-back-end/documents/mandataire.xlsx
@@ -178,7 +178,7 @@
     <t>NEOLIANE</t>
   </si>
   <si>
-    <t>NORTIA (APREP)</t>
+    <t>APREP</t>
   </si>
   <si>
     <t>NOVELIA</t>
@@ -2418,7 +2418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2427,6 +2427,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,6 +2651,8 @@
     <col customWidth="1" min="2" max="2" width="10.43"/>
     <col customWidth="1" min="3" max="3" width="33.0"/>
     <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="15.71"/>
+    <col customWidth="1" min="11" max="11" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2798,7 +2803,7 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">

--- a/sofraco-back-end/documents/mandataire.xlsx
+++ b/sofraco-back-end/documents/mandataire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="639">
   <si>
     <t>NOM DE FAMILLE</t>
   </si>
@@ -88,6 +88,9 @@
 prév escomptée</t>
   </si>
   <si>
+    <t>CEGEMA</t>
+  </si>
+  <si>
     <t>ECA ASSURANCES</t>
   </si>
   <si>
@@ -153,14 +156,14 @@
     <t>SWISS LIFE</t>
   </si>
   <si>
-    <t>SWISSLIFE
+    <t>SWISS LIFE
 AGAPS</t>
   </si>
   <si>
-    <t>SWISSLIFE GCL</t>
-  </si>
-  <si>
-    <t>SWISSLIFE PACTE</t>
+    <t>SWISS LIFE GCL</t>
+  </si>
+  <si>
+    <t>SWISS LIFE PACTE</t>
   </si>
   <si>
     <t>UAF LIFE PATRIMOINE</t>
@@ -854,6 +857,9 @@
   </si>
   <si>
     <t>ETUDE &amp; COURTAGE</t>
+  </si>
+  <si>
+    <t>JIM</t>
   </si>
   <si>
     <t>B0886</t>
@@ -1950,7 +1956,8 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -1983,7 +1990,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2016,6 +2023,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2383,7 +2396,9 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2"/>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AW1" s="2"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="2"/>
@@ -2411,13 +2426,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2452,10 +2467,10 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" s="7"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="8"/>
@@ -2463,13 +2478,13 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
-      <c r="AT2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU2" s="6">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="6">
         <v>741.0</v>
       </c>
-      <c r="AV2" s="9"/>
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="9"/>
@@ -2497,13 +2512,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
@@ -2535,51 +2550,51 @@
         <v>85830.0</v>
       </c>
       <c r="U3" s="7"/>
-      <c r="V3" s="6">
+      <c r="V3" s="8"/>
+      <c r="W3" s="6">
         <v>567.0</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="8"/>
-      <c r="AD3" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="AD3" s="8"/>
       <c r="AE3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="6">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="6">
         <v>547773.0</v>
       </c>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
-      <c r="AO3" s="6">
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="6">
         <v>47780.0</v>
       </c>
-      <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="8"/>
-      <c r="AU3" s="6">
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="6">
         <v>284.0</v>
       </c>
-      <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
@@ -2607,13 +2622,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2632,10 +2647,10 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -2643,39 +2658,39 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="AD4" s="8"/>
       <c r="AE4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="6">
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="6">
         <v>5473347.0</v>
       </c>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL4" s="7"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="6">
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="6">
         <v>56474.0</v>
       </c>
-      <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="6">
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="6">
         <v>505.0</v>
       </c>
-      <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -2703,18 +2718,18 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2732,46 +2747,46 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE5" s="7"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH5" s="7"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL5" s="7"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="6">
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="6">
         <v>64045.0</v>
       </c>
-      <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
-      <c r="AT5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU5" s="6">
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV5" s="6">
         <v>669.0</v>
       </c>
-      <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
@@ -2799,18 +2814,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2836,36 +2851,36 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="6" t="s">
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="6">
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="6">
         <v>5471312.0</v>
       </c>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL6" s="7"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="6">
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="6">
         <v>55967.0</v>
       </c>
-      <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="6">
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="6">
         <v>486.0</v>
       </c>
-      <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9"/>
@@ -2893,13 +2908,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2919,10 +2934,10 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="6">
+      <c r="V7" s="8"/>
+      <c r="W7" s="6">
         <v>7645.0</v>
       </c>
-      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -2930,10 +2945,10 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF7" s="7"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
@@ -2942,20 +2957,20 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="6">
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="6">
         <v>55677.0</v>
       </c>
-      <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
-      <c r="AT7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU7" s="6">
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="6">
         <v>473.0</v>
       </c>
-      <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
@@ -2983,18 +2998,18 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3011,47 +3026,47 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="6">
+      <c r="V8" s="8"/>
+      <c r="W8" s="6">
         <v>7641.0</v>
       </c>
-      <c r="W8" s="8"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="6" t="s">
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AF8" s="7"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="AG8" s="8"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
-      <c r="AK8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL8" s="7"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="6">
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="6">
         <v>55232.0</v>
       </c>
-      <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
-      <c r="AT8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU8" s="6">
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV8" s="6">
         <v>437.0</v>
       </c>
-      <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9"/>
@@ -3079,13 +3094,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3124,18 +3139,18 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
-      <c r="AO9" s="6">
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="6">
         <v>55673.0</v>
       </c>
-      <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="6">
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="6">
         <v>437.0</v>
       </c>
-      <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
@@ -3163,18 +3178,18 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3192,44 +3207,44 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" s="7"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" s="7"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="AG10" s="8"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="6">
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="6">
         <v>547596.0</v>
       </c>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL10" s="7"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="6">
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="6">
         <v>48355.0</v>
       </c>
-      <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="6">
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="6">
         <v>296.0</v>
       </c>
-      <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9"/>
@@ -3257,18 +3272,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3294,18 +3309,18 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="AG11" s="8"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL11" s="7"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="8"/>
@@ -3314,10 +3329,10 @@
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="8"/>
-      <c r="AU11" s="6">
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="6">
         <v>463.0</v>
       </c>
-      <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
@@ -3345,18 +3360,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3388,24 +3403,24 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL12" s="7"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="6">
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="6">
         <v>60919.0</v>
       </c>
-      <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="6">
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="6">
         <v>631.0</v>
       </c>
-      <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9"/>
@@ -3433,13 +3448,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3484,10 +3499,10 @@
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="8"/>
-      <c r="AU13" s="6">
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="6">
         <v>446.0</v>
       </c>
-      <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
@@ -3515,18 +3530,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3555,51 +3570,51 @@
         <v>84119.0</v>
       </c>
       <c r="U14" s="7"/>
-      <c r="V14" s="6">
+      <c r="V14" s="8"/>
+      <c r="W14" s="6">
         <v>584.0</v>
       </c>
-      <c r="W14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="AD14" s="8"/>
       <c r="AE14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="6" t="s">
+      <c r="AF14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="6">
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="6">
         <v>547032.0</v>
       </c>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL14" s="7"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
-      <c r="AO14" s="6">
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="6">
         <v>40856.0</v>
       </c>
-      <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
-      <c r="AU14" s="6">
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="6">
         <v>21.0</v>
       </c>
-      <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9"/>
@@ -3627,18 +3642,18 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3680,10 +3695,10 @@
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
-      <c r="AU15" s="6">
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="6">
         <v>21.0</v>
       </c>
-      <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
@@ -3711,18 +3726,18 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3748,10 +3763,10 @@
       <c r="T16" s="6">
         <v>96591.0</v>
       </c>
-      <c r="U16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="V16" s="7"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="W16" s="8"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -3760,22 +3775,22 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="6" t="s">
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="6">
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="6">
         <v>5478516.0</v>
       </c>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL16" s="7"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="8"/>
@@ -3783,13 +3798,13 @@
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
-      <c r="AT16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU16" s="6">
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV16" s="6">
         <v>593.0</v>
       </c>
-      <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
@@ -3817,13 +3832,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3846,50 +3861,50 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="X17" s="7"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="6">
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="6">
         <v>5651781.0</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="6">
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="6">
         <v>547317.0</v>
       </c>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL17" s="7"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="6">
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="6">
         <v>50141.0</v>
       </c>
-      <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
-      <c r="AU17" s="6">
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="6">
         <v>330.0</v>
       </c>
-      <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9"/>
@@ -3917,13 +3932,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3958,26 +3973,26 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL18" s="7"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="6">
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="6">
         <v>66724.0</v>
       </c>
-      <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
-      <c r="AT18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU18" s="6">
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV18" s="6">
         <v>726.0</v>
       </c>
-      <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
@@ -4005,13 +4020,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4056,10 +4071,10 @@
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
-      <c r="AU19" s="6">
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="6">
         <v>602.0</v>
       </c>
-      <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
       <c r="AY19" s="9"/>
@@ -4087,18 +4102,18 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -4123,35 +4138,35 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE20" s="7"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="6">
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="6">
         <v>5474710.0</v>
       </c>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL20" s="7"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="6">
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="6">
         <v>61577.0</v>
       </c>
-      <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
-      <c r="AU20" s="6">
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="6">
         <v>644.0</v>
       </c>
-      <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
@@ -4179,18 +4194,18 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -4207,47 +4222,47 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="6">
+      <c r="V21" s="8"/>
+      <c r="W21" s="6">
         <v>7642.0</v>
       </c>
-      <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="6" t="s">
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AF21" s="7"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL21" s="7"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="6">
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="6">
         <v>55233.0</v>
       </c>
-      <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
-      <c r="AT21" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU21" s="6">
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV21" s="6">
         <v>438.0</v>
       </c>
-      <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
@@ -4275,13 +4290,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -4320,18 +4335,18 @@
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="6">
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="6">
         <v>55674.0</v>
       </c>
-      <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
-      <c r="AU22" s="6">
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="6">
         <v>438.0</v>
       </c>
-      <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
       <c r="AY22" s="9"/>
@@ -4359,13 +4374,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4410,10 +4425,10 @@
       <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
-      <c r="AU23" s="6">
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="6">
         <v>460.0</v>
       </c>
-      <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
@@ -4441,13 +4456,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4482,10 +4497,10 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL24" s="7"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="8"/>
@@ -4494,10 +4509,10 @@
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
-      <c r="AU24" s="6">
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="6">
         <v>586.0</v>
       </c>
-      <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="9"/>
@@ -4525,18 +4540,18 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4554,10 +4569,10 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="X25" s="7"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -4574,18 +4589,18 @@
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="6">
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="6">
         <v>43331.0</v>
       </c>
-      <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
-      <c r="AU25" s="6">
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="6">
         <v>233.0</v>
       </c>
-      <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="9"/>
@@ -4613,13 +4628,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4654,24 +4669,24 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL26" s="7"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="6">
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="6">
         <v>66486.0</v>
       </c>
-      <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
-      <c r="AU26" s="6">
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="6">
         <v>721.0</v>
       </c>
-      <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
       <c r="AY26" s="9"/>
@@ -4699,13 +4714,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4734,10 +4749,10 @@
       <c r="T27" s="6">
         <v>103083.0</v>
       </c>
-      <c r="U27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="V27" s="7"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -4748,18 +4763,18 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="6">
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="6">
         <v>5472420.0</v>
       </c>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL27" s="7"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="8"/>
@@ -4768,10 +4783,10 @@
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
       <c r="AT27" s="8"/>
-      <c r="AU27" s="6">
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="6">
         <v>737.0</v>
       </c>
-      <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
       <c r="AX27" s="9"/>
       <c r="AY27" s="9"/>
@@ -4799,13 +4814,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4850,10 +4865,10 @@
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="8"/>
-      <c r="AU28" s="6">
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="6">
         <v>456.0</v>
       </c>
-      <c r="AV28" s="9"/>
       <c r="AW28" s="9"/>
       <c r="AX28" s="9"/>
       <c r="AY28" s="9"/>
@@ -4881,13 +4896,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4926,18 +4941,18 @@
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
-      <c r="AO29" s="6">
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="6">
         <v>44859.0</v>
       </c>
-      <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
-      <c r="AU29" s="6">
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="6">
         <v>521.0</v>
       </c>
-      <c r="AV29" s="9"/>
       <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
       <c r="AY29" s="9"/>
@@ -4965,13 +4980,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -5016,10 +5031,10 @@
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
-      <c r="AU30" s="6">
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="6">
         <v>308.0</v>
       </c>
-      <c r="AV30" s="9"/>
       <c r="AW30" s="9"/>
       <c r="AX30" s="9"/>
       <c r="AY30" s="9"/>
@@ -5047,18 +5062,18 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -5076,46 +5091,46 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="X31" s="7"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
-      <c r="AD31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE31" s="7"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="6">
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="6">
         <v>5478512.0</v>
       </c>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL31" s="7"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
-      <c r="AO31" s="6">
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="6">
         <v>56141.0</v>
       </c>
-      <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
       <c r="AT31" s="8"/>
-      <c r="AU31" s="6">
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="6">
         <v>494.0</v>
       </c>
-      <c r="AV31" s="9"/>
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
@@ -5143,13 +5158,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -5182,32 +5197,32 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="6">
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="6">
         <v>5473360.0</v>
       </c>
-      <c r="AJ32" s="7"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
-      <c r="AO32" s="6">
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="6">
         <v>64044.0</v>
       </c>
-      <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
-      <c r="AT32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU32" s="6">
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV32" s="6">
         <v>679.0</v>
       </c>
-      <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
@@ -5235,18 +5250,18 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -5271,39 +5286,39 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
-      <c r="AD33" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="AD33" s="8"/>
       <c r="AE33" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="6">
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="6">
         <v>547249.0</v>
       </c>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL33" s="7"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
-      <c r="AO33" s="6">
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="6">
         <v>55683.0</v>
       </c>
-      <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="8"/>
-      <c r="AU33" s="6">
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="6">
         <v>470.0</v>
       </c>
-      <c r="AV33" s="9"/>
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
@@ -5331,13 +5346,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -5372,24 +5387,24 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
-      <c r="AK34" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL34" s="7"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
-      <c r="AO34" s="6">
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="6">
         <v>62267.0</v>
       </c>
-      <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
-      <c r="AU34" s="6">
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="6">
         <v>656.0</v>
       </c>
-      <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
       <c r="AX34" s="9"/>
       <c r="AY34" s="9"/>
@@ -5417,13 +5432,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -5456,48 +5471,48 @@
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="X35" s="7"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
-      <c r="AD35" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="AD35" s="8"/>
       <c r="AE35" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="6">
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="6">
         <v>5473110.0</v>
       </c>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL35" s="7"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
-      <c r="AO35" s="6">
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="6">
         <v>52474.0</v>
       </c>
-      <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
       <c r="AT35" s="8"/>
-      <c r="AU35" s="6">
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="6">
         <v>385.0</v>
       </c>
-      <c r="AV35" s="9"/>
       <c r="AW35" s="9"/>
       <c r="AX35" s="9"/>
       <c r="AY35" s="9"/>
@@ -5525,13 +5540,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5566,10 +5581,10 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL36" s="7"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="8"/>
@@ -5579,7 +5594,7 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="8"/>
       <c r="AU36" s="8"/>
-      <c r="AV36" s="9"/>
+      <c r="AV36" s="7"/>
       <c r="AW36" s="9"/>
       <c r="AX36" s="9"/>
       <c r="AY36" s="9"/>
@@ -5607,13 +5622,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -5634,10 +5649,10 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="X37" s="7"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -5650,10 +5665,10 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL37" s="7"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
@@ -5662,10 +5677,10 @@
       <c r="AR37" s="7"/>
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
-      <c r="AU37" s="6">
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="6">
         <v>291.0</v>
       </c>
-      <c r="AV37" s="9"/>
       <c r="AW37" s="9"/>
       <c r="AX37" s="9"/>
       <c r="AY37" s="9"/>
@@ -5693,13 +5708,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -5738,18 +5753,18 @@
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
-      <c r="AO38" s="6">
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="6">
         <v>65518.0</v>
       </c>
-      <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
-      <c r="AU38" s="6">
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="6">
         <v>696.0</v>
       </c>
-      <c r="AV38" s="9"/>
       <c r="AW38" s="9"/>
       <c r="AX38" s="9"/>
       <c r="AY38" s="9"/>
@@ -5777,18 +5792,18 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -5814,10 +5829,10 @@
       <c r="T39" s="6">
         <v>99890.0</v>
       </c>
-      <c r="U39" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="V39" s="7"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -5825,39 +5840,39 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
-      <c r="AD39" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE39" s="7"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="AF39" s="7"/>
-      <c r="AG39" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="6">
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="6">
         <v>5478517.0</v>
       </c>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL39" s="7"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
-      <c r="AO39" s="6">
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="6">
         <v>62957.0</v>
       </c>
-      <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
-      <c r="AT39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU39" s="6">
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV39" s="6">
         <v>674.0</v>
       </c>
-      <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
       <c r="AX39" s="9"/>
       <c r="AY39" s="9"/>
@@ -5885,13 +5900,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5929,39 +5944,39 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
-      <c r="AD40" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="AD40" s="8"/>
       <c r="AE40" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="6">
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="6">
         <v>547406.0</v>
       </c>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL40" s="7"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
-      <c r="AO40" s="6">
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="6">
         <v>54196.0</v>
       </c>
-      <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
       <c r="AT40" s="8"/>
-      <c r="AU40" s="6">
+      <c r="AU40" s="8"/>
+      <c r="AV40" s="6">
         <v>418.0</v>
       </c>
-      <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
       <c r="AX40" s="9"/>
       <c r="AY40" s="9"/>
@@ -5989,13 +6004,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -6030,24 +6045,24 @@
       <c r="AH41" s="7"/>
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
-      <c r="AK41" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL41" s="7"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="6">
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="6">
         <v>65522.0</v>
       </c>
-      <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="7"/>
       <c r="AT41" s="8"/>
-      <c r="AU41" s="6">
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="6">
         <v>695.0</v>
       </c>
-      <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
@@ -6075,18 +6090,18 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -6118,24 +6133,24 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="7"/>
-      <c r="AK42" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AL42" s="7"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="AM42" s="7"/>
       <c r="AN42" s="8"/>
-      <c r="AO42" s="6">
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="6">
         <v>60918.0</v>
       </c>
-      <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
       <c r="AS42" s="7"/>
       <c r="AT42" s="7"/>
-      <c r="AU42" s="6">
+      <c r="AU42" s="8"/>
+      <c r="AV42" s="6">
         <v>630.0</v>
       </c>
-      <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
       <c r="AX42" s="9"/>
       <c r="AY42" s="9"/>
@@ -6163,18 +6178,18 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -6192,10 +6207,10 @@
       <c r="T43" s="7"/>
       <c r="U43" s="8"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="X43" s="7"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -6208,24 +6223,24 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
-      <c r="AK43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL43" s="7"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
-      <c r="AO43" s="6">
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="6">
         <v>44027.0</v>
       </c>
-      <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="7"/>
       <c r="AT43" s="8"/>
-      <c r="AU43" s="6">
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="6">
         <v>632.0</v>
       </c>
-      <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
       <c r="AX43" s="9"/>
       <c r="AY43" s="9"/>
@@ -6253,13 +6268,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -6304,10 +6319,10 @@
       <c r="AR44" s="7"/>
       <c r="AS44" s="7"/>
       <c r="AT44" s="8"/>
-      <c r="AU44" s="6">
+      <c r="AU44" s="8"/>
+      <c r="AV44" s="6">
         <v>608.0</v>
       </c>
-      <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
       <c r="AX44" s="9"/>
       <c r="AY44" s="9"/>
@@ -6335,13 +6350,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -6372,44 +6387,44 @@
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="X45" s="7"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
-      <c r="AD45" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE45" s="7"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="AF45" s="7"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="6">
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="6">
         <v>5473350.0</v>
       </c>
-      <c r="AJ45" s="7"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
-      <c r="AO45" s="6">
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="6">
         <v>59251.0</v>
       </c>
-      <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7"/>
-      <c r="AT45" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU45" s="6">
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV45" s="6">
         <v>529.0</v>
       </c>
-      <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
       <c r="AX45" s="9"/>
       <c r="AY45" s="9"/>
@@ -6437,13 +6452,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -6464,10 +6479,10 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="X46" s="7"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
@@ -6480,10 +6495,10 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="7"/>
-      <c r="AK46" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL46" s="7"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
       <c r="AO46" s="8"/>
@@ -6491,13 +6506,13 @@
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
       <c r="AS46" s="7"/>
-      <c r="AT46" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU46" s="6">
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV46" s="6">
         <v>714.0</v>
       </c>
-      <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
       <c r="AX46" s="9"/>
       <c r="AY46" s="9"/>
@@ -6525,13 +6540,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -6570,18 +6585,18 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
-      <c r="AO47" s="6">
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="6">
         <v>54537.0</v>
       </c>
-      <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
       <c r="AS47" s="7"/>
       <c r="AT47" s="8"/>
-      <c r="AU47" s="6">
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="6">
         <v>434.0</v>
       </c>
-      <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
       <c r="AX47" s="9"/>
       <c r="AY47" s="9"/>
@@ -6609,13 +6624,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -6660,10 +6675,10 @@
       <c r="AR48" s="7"/>
       <c r="AS48" s="7"/>
       <c r="AT48" s="8"/>
-      <c r="AU48" s="6">
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="6">
         <v>309.0</v>
       </c>
-      <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
       <c r="AX48" s="9"/>
       <c r="AY48" s="9"/>
@@ -6691,13 +6706,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -6742,10 +6757,10 @@
       <c r="AR49" s="7"/>
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
-      <c r="AU49" s="6">
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="6">
         <v>447.0</v>
       </c>
-      <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
       <c r="AX49" s="9"/>
       <c r="AY49" s="9"/>
@@ -6773,13 +6788,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -6824,10 +6839,10 @@
       <c r="AR50" s="7"/>
       <c r="AS50" s="7"/>
       <c r="AT50" s="8"/>
-      <c r="AU50" s="6">
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="6">
         <v>448.0</v>
       </c>
-      <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
       <c r="AX50" s="9"/>
       <c r="AY50" s="9"/>
@@ -6855,13 +6870,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -6906,10 +6921,10 @@
       <c r="AR51" s="7"/>
       <c r="AS51" s="7"/>
       <c r="AT51" s="7"/>
-      <c r="AU51" s="6">
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="6">
         <v>459.0</v>
       </c>
-      <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
       <c r="AX51" s="9"/>
       <c r="AY51" s="9"/>
@@ -6937,13 +6952,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6962,46 +6977,48 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
+      <c r="U52" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="V52" s="7"/>
-      <c r="W52" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="X52" s="7"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
-      <c r="AD52" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="AF52" s="7"/>
       <c r="AG52" s="8"/>
       <c r="AH52" s="7"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="7"/>
-      <c r="AK52" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN52" s="7"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AO52" s="8"/>
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
-      <c r="AR52" s="6">
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="6">
         <v>55496.0</v>
       </c>
-      <c r="AS52" s="7"/>
       <c r="AT52" s="8"/>
-      <c r="AU52" s="6">
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="6">
         <v>285.0</v>
       </c>
-      <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
       <c r="AX52" s="9"/>
       <c r="AY52" s="9"/>
@@ -7029,18 +7046,18 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -7057,10 +7074,10 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="6">
+      <c r="V53" s="8"/>
+      <c r="W53" s="6">
         <v>7643.0</v>
       </c>
-      <c r="W53" s="8"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
@@ -7068,36 +7085,36 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="8"/>
-      <c r="AE53" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF53" s="7"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="AG53" s="8"/>
       <c r="AH53" s="7"/>
-      <c r="AI53" s="6">
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="6">
         <v>5473359.0</v>
       </c>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL53" s="7"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
-      <c r="AO53" s="6">
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="6">
         <v>55675.0</v>
       </c>
-      <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
       <c r="AS53" s="7"/>
-      <c r="AT53" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU53" s="6">
+      <c r="AT53" s="8"/>
+      <c r="AU53" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV53" s="6">
         <v>439.0</v>
       </c>
-      <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
       <c r="AX53" s="9"/>
       <c r="AY53" s="9"/>
@@ -7125,13 +7142,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -7170,18 +7187,18 @@
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="7"/>
-      <c r="AO54" s="6">
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="6">
         <v>55234.0</v>
       </c>
-      <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
       <c r="AS54" s="7"/>
       <c r="AT54" s="8"/>
-      <c r="AU54" s="6">
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="6">
         <v>439.0</v>
       </c>
-      <c r="AV54" s="9"/>
       <c r="AW54" s="9"/>
       <c r="AX54" s="9"/>
       <c r="AY54" s="9"/>
@@ -7209,18 +7226,18 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -7245,37 +7262,37 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
-      <c r="AD55" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE55" s="7"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="AF55" s="7"/>
-      <c r="AG55" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH55" s="7"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="7"/>
-      <c r="AK55" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AL55" s="7"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
-      <c r="AO55" s="6">
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="6">
         <v>60005.0</v>
       </c>
-      <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
       <c r="AS55" s="7"/>
-      <c r="AT55" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU55" s="6">
+      <c r="AT55" s="8"/>
+      <c r="AU55" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV55" s="6">
         <v>668.0</v>
       </c>
-      <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
       <c r="AX55" s="9"/>
       <c r="AY55" s="9"/>
@@ -7303,13 +7320,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -7348,20 +7365,20 @@
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
-      <c r="AO56" s="6">
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="6">
         <v>55826.0</v>
       </c>
-      <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
       <c r="AS56" s="7"/>
-      <c r="AT56" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU56" s="6">
+      <c r="AT56" s="8"/>
+      <c r="AU56" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV56" s="6">
         <v>583.0</v>
       </c>
-      <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
       <c r="AX56" s="9"/>
       <c r="AY56" s="9"/>
@@ -7389,13 +7406,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -7416,48 +7433,48 @@
       <c r="T57" s="8"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
-      <c r="W57" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="X57" s="7"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
-      <c r="AD57" s="6" t="s">
-        <v>300</v>
-      </c>
+      <c r="AD57" s="8"/>
       <c r="AE57" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="6">
+      <c r="AF57" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="6">
         <v>5473344.0</v>
       </c>
-      <c r="AJ57" s="7"/>
-      <c r="AK57" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL57" s="7"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
-      <c r="AO57" s="6">
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="6">
         <v>55243.0</v>
       </c>
-      <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
-      <c r="AU57" s="6">
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="6">
         <v>366.0</v>
       </c>
-      <c r="AV57" s="9"/>
       <c r="AW57" s="9"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="9"/>
@@ -7485,18 +7502,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -7531,37 +7548,37 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
-      <c r="AD58" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="AD58" s="8"/>
       <c r="AE58" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF58" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="8"/>
       <c r="AJ58" s="7"/>
-      <c r="AK58" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL58" s="7"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
-      <c r="AO58" s="6">
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="6">
         <v>56579.0</v>
       </c>
-      <c r="AP58" s="7"/>
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
       <c r="AS58" s="7"/>
-      <c r="AT58" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU58" s="6">
+      <c r="AT58" s="8"/>
+      <c r="AU58" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV58" s="6">
         <v>517.0</v>
       </c>
-      <c r="AV58" s="9"/>
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9"/>
@@ -7589,18 +7606,18 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -7625,33 +7642,33 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
-      <c r="AD59" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="AF59" s="7"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="7"/>
-      <c r="AK59" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL59" s="7"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
-      <c r="AO59" s="6">
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="6">
         <v>57092.0</v>
       </c>
-      <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
       <c r="AS59" s="7"/>
       <c r="AT59" s="8"/>
-      <c r="AU59" s="6">
+      <c r="AU59" s="8"/>
+      <c r="AV59" s="6">
         <v>536.0</v>
       </c>
-      <c r="AV59" s="9"/>
       <c r="AW59" s="9"/>
       <c r="AX59" s="9"/>
       <c r="AY59" s="9"/>
@@ -7679,13 +7696,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -7720,10 +7737,10 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="7"/>
-      <c r="AK60" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL60" s="7"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="8"/>
@@ -7732,10 +7749,10 @@
       <c r="AR60" s="7"/>
       <c r="AS60" s="7"/>
       <c r="AT60" s="7"/>
-      <c r="AU60" s="6">
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="6">
         <v>725.0</v>
       </c>
-      <c r="AV60" s="9"/>
       <c r="AW60" s="9"/>
       <c r="AX60" s="9"/>
       <c r="AY60" s="9"/>
@@ -7763,18 +7780,18 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -7800,34 +7817,34 @@
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="8"/>
-      <c r="AE61" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF61" s="7"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="AG61" s="8"/>
       <c r="AH61" s="7"/>
-      <c r="AI61" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ61" s="7"/>
-      <c r="AK61" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL61" s="7"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
-      <c r="AO61" s="6">
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="6">
         <v>58969.0</v>
       </c>
-      <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
-      <c r="AU61" s="6">
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="6">
         <v>545.0</v>
       </c>
-      <c r="AV61" s="9"/>
       <c r="AW61" s="9"/>
       <c r="AX61" s="9"/>
       <c r="AY61" s="9"/>
@@ -7855,18 +7872,18 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -7908,10 +7925,10 @@
       <c r="AR62" s="7"/>
       <c r="AS62" s="7"/>
       <c r="AT62" s="7"/>
-      <c r="AU62" s="6">
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="6">
         <v>710.0</v>
       </c>
-      <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
       <c r="AX62" s="9"/>
       <c r="AY62" s="9"/>
@@ -7939,13 +7956,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -7974,54 +7991,54 @@
       <c r="T63" s="6">
         <v>96784.0</v>
       </c>
-      <c r="U63" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="V63" s="7"/>
-      <c r="W63" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="X63" s="7"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="W63" s="8"/>
+      <c r="X63" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
-      <c r="AD63" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="AD63" s="8"/>
       <c r="AE63" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="6">
+      <c r="AF63" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="6">
         <v>547447.0</v>
       </c>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL63" s="7"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
-      <c r="AO63" s="6">
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="6">
         <v>60205.0</v>
       </c>
-      <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7"/>
-      <c r="AT63" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AU63" s="6">
+      <c r="AT63" s="8"/>
+      <c r="AU63" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV63" s="6">
         <v>601.0</v>
       </c>
-      <c r="AV63" s="9"/>
       <c r="AW63" s="9"/>
       <c r="AX63" s="9"/>
       <c r="AY63" s="9"/>
@@ -8049,13 +8066,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -8084,20 +8101,20 @@
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="8"/>
-      <c r="AE64" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF64" s="7"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="7"/>
-      <c r="AI64" s="6">
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="6">
         <v>547648.0</v>
       </c>
-      <c r="AJ64" s="7"/>
-      <c r="AK64" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL64" s="7"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
       <c r="AO64" s="8"/>
@@ -8106,10 +8123,10 @@
       <c r="AR64" s="7"/>
       <c r="AS64" s="7"/>
       <c r="AT64" s="7"/>
-      <c r="AU64" s="6">
+      <c r="AU64" s="8"/>
+      <c r="AV64" s="6">
         <v>68.0</v>
       </c>
-      <c r="AV64" s="9"/>
       <c r="AW64" s="9"/>
       <c r="AX64" s="9"/>
       <c r="AY64" s="9"/>
@@ -8137,13 +8154,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -8188,10 +8205,10 @@
       <c r="AH65" s="7"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="7"/>
-      <c r="AK65" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL65" s="7"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
       <c r="AO65" s="8"/>
@@ -8200,10 +8217,10 @@
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
-      <c r="AU65" s="6">
+      <c r="AU65" s="8"/>
+      <c r="AV65" s="6">
         <v>718.0</v>
       </c>
-      <c r="AV65" s="9"/>
       <c r="AW65" s="9"/>
       <c r="AX65" s="9"/>
       <c r="AY65" s="9"/>
@@ -8231,13 +8248,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -8282,10 +8299,10 @@
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
       <c r="AT66" s="7"/>
-      <c r="AU66" s="6">
+      <c r="AU66" s="8"/>
+      <c r="AV66" s="6">
         <v>609.0</v>
       </c>
-      <c r="AV66" s="9"/>
       <c r="AW66" s="9"/>
       <c r="AX66" s="9"/>
       <c r="AY66" s="9"/>
@@ -8313,18 +8330,18 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -8370,18 +8387,18 @@
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
-      <c r="AO67" s="6">
+      <c r="AO67" s="8"/>
+      <c r="AP67" s="6">
         <v>66757.0</v>
       </c>
-      <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
-      <c r="AU67" s="6">
+      <c r="AU67" s="8"/>
+      <c r="AV67" s="6">
         <v>732.0</v>
       </c>
-      <c r="AV67" s="9"/>
       <c r="AW67" s="9"/>
       <c r="AX67" s="9"/>
       <c r="AY67" s="9"/>
@@ -8409,13 +8426,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -8454,18 +8471,18 @@
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
-      <c r="AO68" s="6">
+      <c r="AO68" s="8"/>
+      <c r="AP68" s="6">
         <v>62829.0</v>
       </c>
-      <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
       <c r="AS68" s="7"/>
       <c r="AT68" s="7"/>
-      <c r="AU68" s="6">
+      <c r="AU68" s="8"/>
+      <c r="AV68" s="6">
         <v>678.0</v>
       </c>
-      <c r="AV68" s="9"/>
       <c r="AW68" s="9"/>
       <c r="AX68" s="9"/>
       <c r="AY68" s="9"/>
@@ -8493,13 +8510,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -8544,10 +8561,10 @@
       <c r="AR69" s="7"/>
       <c r="AS69" s="7"/>
       <c r="AT69" s="7"/>
-      <c r="AU69" s="6">
+      <c r="AU69" s="8"/>
+      <c r="AV69" s="6">
         <v>520.0</v>
       </c>
-      <c r="AV69" s="9"/>
       <c r="AW69" s="9"/>
       <c r="AX69" s="9"/>
       <c r="AY69" s="9"/>
@@ -8575,18 +8592,18 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -8621,10 +8638,10 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
-      <c r="AD70" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE70" s="7"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7"/>
@@ -8634,18 +8651,18 @@
       <c r="AL70" s="7"/>
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="6">
+      <c r="AO70" s="8"/>
+      <c r="AP70" s="6">
         <v>53066.0</v>
       </c>
-      <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
       <c r="AR70" s="7"/>
       <c r="AS70" s="7"/>
       <c r="AT70" s="7"/>
-      <c r="AU70" s="6">
+      <c r="AU70" s="8"/>
+      <c r="AV70" s="6">
         <v>388.0</v>
       </c>
-      <c r="AV70" s="9"/>
       <c r="AW70" s="9"/>
       <c r="AX70" s="9"/>
       <c r="AY70" s="9"/>
@@ -8673,13 +8690,13 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -8714,10 +8731,10 @@
       <c r="AH71" s="7"/>
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7"/>
-      <c r="AK71" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AL71" s="7"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
       <c r="AO71" s="7"/>
@@ -8726,10 +8743,10 @@
       <c r="AR71" s="7"/>
       <c r="AS71" s="7"/>
       <c r="AT71" s="7"/>
-      <c r="AU71" s="6">
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="6">
         <v>735.0</v>
       </c>
-      <c r="AV71" s="9"/>
       <c r="AW71" s="9"/>
       <c r="AX71" s="9"/>
       <c r="AY71" s="9"/>
@@ -8757,18 +8774,18 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -8800,26 +8817,26 @@
       <c r="AH72" s="7"/>
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
-      <c r="AK72" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL72" s="7"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
-      <c r="AO72" s="6">
+      <c r="AO72" s="8"/>
+      <c r="AP72" s="6">
         <v>61580.0</v>
       </c>
-      <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7"/>
-      <c r="AT72" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU72" s="6">
+      <c r="AT72" s="8"/>
+      <c r="AU72" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV72" s="6">
         <v>650.0</v>
       </c>
-      <c r="AV72" s="9"/>
       <c r="AW72" s="9"/>
       <c r="AX72" s="9"/>
       <c r="AY72" s="9"/>
@@ -8847,18 +8864,18 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -8890,24 +8907,24 @@
       <c r="AH73" s="7"/>
       <c r="AI73" s="8"/>
       <c r="AJ73" s="7"/>
-      <c r="AK73" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL73" s="7"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
-      <c r="AO73" s="6">
+      <c r="AO73" s="8"/>
+      <c r="AP73" s="6">
         <v>62268.0</v>
       </c>
-      <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7"/>
       <c r="AT73" s="7"/>
-      <c r="AU73" s="6">
+      <c r="AU73" s="8"/>
+      <c r="AV73" s="6">
         <v>657.0</v>
       </c>
-      <c r="AV73" s="9"/>
       <c r="AW73" s="9"/>
       <c r="AX73" s="9"/>
       <c r="AY73" s="9"/>
@@ -8935,18 +8952,18 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -8978,24 +8995,24 @@
       <c r="AH74" s="7"/>
       <c r="AI74" s="8"/>
       <c r="AJ74" s="7"/>
-      <c r="AK74" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL74" s="7"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
-      <c r="AO74" s="6">
+      <c r="AO74" s="8"/>
+      <c r="AP74" s="6">
         <v>60765.0</v>
       </c>
-      <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
       <c r="AR74" s="7"/>
       <c r="AS74" s="7"/>
       <c r="AT74" s="8"/>
-      <c r="AU74" s="6">
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="6">
         <v>618.0</v>
       </c>
-      <c r="AV74" s="9"/>
       <c r="AW74" s="9"/>
       <c r="AX74" s="9"/>
       <c r="AY74" s="9"/>
@@ -9023,13 +9040,13 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -9050,10 +9067,10 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
-      <c r="U75" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="V75" s="7"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
@@ -9061,39 +9078,39 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
-      <c r="AD75" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE75" s="7"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="AF75" s="7"/>
-      <c r="AG75" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="6">
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="6">
         <v>5478519.0</v>
       </c>
-      <c r="AJ75" s="7"/>
-      <c r="AK75" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AL75" s="7"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="AM75" s="7"/>
       <c r="AN75" s="7"/>
-      <c r="AO75" s="6">
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="6">
         <v>62385.0</v>
       </c>
-      <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
       <c r="AS75" s="7"/>
-      <c r="AT75" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU75" s="6">
+      <c r="AT75" s="8"/>
+      <c r="AU75" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV75" s="6">
         <v>676.0</v>
       </c>
-      <c r="AV75" s="9"/>
       <c r="AW75" s="9"/>
       <c r="AX75" s="9"/>
       <c r="AY75" s="9"/>
@@ -9121,13 +9138,13 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -9172,10 +9189,10 @@
       <c r="AR76" s="7"/>
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
-      <c r="AU76" s="6">
+      <c r="AU76" s="8"/>
+      <c r="AV76" s="6">
         <v>455.0</v>
       </c>
-      <c r="AV76" s="9"/>
       <c r="AW76" s="9"/>
       <c r="AX76" s="9"/>
       <c r="AY76" s="9"/>
@@ -9203,13 +9220,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -9254,10 +9271,10 @@
       <c r="AR77" s="7"/>
       <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
-      <c r="AU77" s="6">
+      <c r="AU77" s="8"/>
+      <c r="AV77" s="6">
         <v>562.0</v>
       </c>
-      <c r="AV77" s="9"/>
       <c r="AW77" s="9"/>
       <c r="AX77" s="9"/>
       <c r="AY77" s="9"/>
@@ -9285,18 +9302,18 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -9338,10 +9355,10 @@
       <c r="AR78" s="7"/>
       <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
-      <c r="AU78" s="6">
+      <c r="AU78" s="8"/>
+      <c r="AV78" s="6">
         <v>560.0</v>
       </c>
-      <c r="AV78" s="9"/>
       <c r="AW78" s="9"/>
       <c r="AX78" s="9"/>
       <c r="AY78" s="9"/>
@@ -9369,18 +9386,18 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -9412,24 +9429,24 @@
       <c r="AH79" s="7"/>
       <c r="AI79" s="8"/>
       <c r="AJ79" s="7"/>
-      <c r="AK79" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL79" s="7"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
-      <c r="AO79" s="6">
+      <c r="AO79" s="8"/>
+      <c r="AP79" s="6">
         <v>60764.0</v>
       </c>
-      <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
       <c r="AR79" s="7"/>
       <c r="AS79" s="7"/>
       <c r="AT79" s="8"/>
-      <c r="AU79" s="6">
+      <c r="AU79" s="8"/>
+      <c r="AV79" s="6">
         <v>616.0</v>
       </c>
-      <c r="AV79" s="9"/>
       <c r="AW79" s="9"/>
       <c r="AX79" s="9"/>
       <c r="AY79" s="9"/>
@@ -9457,18 +9474,18 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -9494,10 +9511,10 @@
       <c r="T80" s="6">
         <v>97363.0</v>
       </c>
-      <c r="U80" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="V80" s="7"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
@@ -9505,39 +9522,39 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
-      <c r="AD80" s="6" t="s">
-        <v>398</v>
-      </c>
+      <c r="AD80" s="8"/>
       <c r="AE80" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF80" s="7"/>
-      <c r="AG80" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AH80" s="7"/>
-      <c r="AI80" s="6">
+      <c r="AF80" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="6">
         <v>547409.0</v>
       </c>
-      <c r="AJ80" s="7"/>
       <c r="AK80" s="8"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
-      <c r="AO80" s="6">
+      <c r="AO80" s="8"/>
+      <c r="AP80" s="6">
         <v>61118.0</v>
       </c>
-      <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
       <c r="AS80" s="7"/>
-      <c r="AT80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AU80" s="6">
+      <c r="AT80" s="8"/>
+      <c r="AU80" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AV80" s="6">
         <v>623.0</v>
       </c>
-      <c r="AV80" s="9"/>
       <c r="AW80" s="9"/>
       <c r="AX80" s="9"/>
       <c r="AY80" s="9"/>
@@ -9565,13 +9582,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -9612,14 +9629,14 @@
       <c r="AD81" s="7"/>
       <c r="AE81" s="8"/>
       <c r="AF81" s="7"/>
-      <c r="AG81" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH81" s="7"/>
-      <c r="AI81" s="6">
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="6">
         <v>5474225.0</v>
       </c>
-      <c r="AJ81" s="7"/>
       <c r="AK81" s="8"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
@@ -9630,10 +9647,10 @@
       <c r="AR81" s="7"/>
       <c r="AS81" s="7"/>
       <c r="AT81" s="7"/>
-      <c r="AU81" s="6">
+      <c r="AU81" s="8"/>
+      <c r="AV81" s="6">
         <v>730.0</v>
       </c>
-      <c r="AV81" s="9"/>
       <c r="AW81" s="9"/>
       <c r="AX81" s="9"/>
       <c r="AY81" s="9"/>
@@ -9661,18 +9678,18 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -9698,10 +9715,10 @@
       <c r="T82" s="6">
         <v>96350.0</v>
       </c>
-      <c r="U82" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="V82" s="7"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -9710,34 +9727,34 @@
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
-      <c r="AE82" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF82" s="7"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="AG82" s="7"/>
       <c r="AH82" s="7"/>
-      <c r="AI82" s="6">
+      <c r="AI82" s="8"/>
+      <c r="AJ82" s="6">
         <v>5473352.0</v>
       </c>
-      <c r="AJ82" s="7"/>
-      <c r="AK82" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AL82" s="7"/>
+      <c r="AK82" s="8"/>
+      <c r="AL82" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
-      <c r="AO82" s="6">
+      <c r="AO82" s="8"/>
+      <c r="AP82" s="6">
         <v>60007.0</v>
       </c>
-      <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
       <c r="AS82" s="7"/>
       <c r="AT82" s="8"/>
-      <c r="AU82" s="6">
+      <c r="AU82" s="8"/>
+      <c r="AV82" s="6">
         <v>597.0</v>
       </c>
-      <c r="AV82" s="9"/>
       <c r="AW82" s="9"/>
       <c r="AX82" s="9"/>
       <c r="AY82" s="9"/>
@@ -9765,18 +9782,18 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -9794,10 +9811,10 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
-      <c r="U83" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="V83" s="7"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -9805,35 +9822,35 @@
       <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
       <c r="AC83" s="7"/>
-      <c r="AD83" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE83" s="7"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="6" t="s">
+        <v>418</v>
+      </c>
       <c r="AF83" s="7"/>
-      <c r="AG83" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH83" s="7"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="AI83" s="7"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="8"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
-      <c r="AO83" s="6">
+      <c r="AO83" s="8"/>
+      <c r="AP83" s="6">
         <v>61144.0</v>
       </c>
-      <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
       <c r="AS83" s="7"/>
-      <c r="AT83" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AU83" s="6">
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV83" s="6">
         <v>639.0</v>
       </c>
-      <c r="AV83" s="9"/>
       <c r="AW83" s="9"/>
       <c r="AX83" s="9"/>
       <c r="AY83" s="9"/>
@@ -9861,18 +9878,18 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -9888,10 +9905,10 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
-      <c r="U84" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="V84" s="7"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -9902,34 +9919,34 @@
       <c r="AD84" s="7"/>
       <c r="AE84" s="7"/>
       <c r="AF84" s="7"/>
-      <c r="AG84" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH84" s="7"/>
-      <c r="AI84" s="6">
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="6">
         <v>547286.0</v>
       </c>
-      <c r="AJ84" s="7"/>
-      <c r="AK84" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="AL84" s="7"/>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
-      <c r="AO84" s="6">
+      <c r="AO84" s="8"/>
+      <c r="AP84" s="6">
         <v>61315.0</v>
       </c>
-      <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
       <c r="AR84" s="7"/>
       <c r="AS84" s="7"/>
-      <c r="AT84" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AU84" s="6">
+      <c r="AT84" s="8"/>
+      <c r="AU84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV84" s="6">
         <v>646.0</v>
       </c>
-      <c r="AV84" s="9"/>
       <c r="AW84" s="9"/>
       <c r="AX84" s="9"/>
       <c r="AY84" s="9"/>
@@ -9957,18 +9974,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -9986,10 +10003,10 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="X85" s="7"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
@@ -10002,26 +10019,26 @@
       <c r="AH85" s="7"/>
       <c r="AI85" s="8"/>
       <c r="AJ85" s="7"/>
-      <c r="AK85" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL85" s="7"/>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="AM85" s="7"/>
       <c r="AN85" s="7"/>
-      <c r="AO85" s="6">
+      <c r="AO85" s="8"/>
+      <c r="AP85" s="6">
         <v>64654.0</v>
       </c>
-      <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
       <c r="AR85" s="7"/>
       <c r="AS85" s="7"/>
-      <c r="AT85" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AU85" s="6">
+      <c r="AT85" s="8"/>
+      <c r="AU85" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV85" s="6">
         <v>620.0</v>
       </c>
-      <c r="AV85" s="9"/>
       <c r="AW85" s="9"/>
       <c r="AX85" s="9"/>
       <c r="AY85" s="9"/>
@@ -10049,13 +10066,13 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -10100,10 +10117,10 @@
       <c r="AR86" s="7"/>
       <c r="AS86" s="7"/>
       <c r="AT86" s="7"/>
-      <c r="AU86" s="6">
+      <c r="AU86" s="8"/>
+      <c r="AV86" s="6">
         <v>450.0</v>
       </c>
-      <c r="AV86" s="9"/>
       <c r="AW86" s="9"/>
       <c r="AX86" s="9"/>
       <c r="AY86" s="9"/>
@@ -10131,13 +10148,13 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -10182,10 +10199,10 @@
       <c r="AR87" s="7"/>
       <c r="AS87" s="7"/>
       <c r="AT87" s="7"/>
-      <c r="AU87" s="6">
+      <c r="AU87" s="8"/>
+      <c r="AV87" s="6">
         <v>451.0</v>
       </c>
-      <c r="AV87" s="9"/>
       <c r="AW87" s="9"/>
       <c r="AX87" s="9"/>
       <c r="AY87" s="9"/>
@@ -10213,18 +10230,18 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -10240,10 +10257,10 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
-      <c r="U88" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="V88" s="7"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
@@ -10254,32 +10271,32 @@
       <c r="AD88" s="7"/>
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
-      <c r="AG88" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="6">
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="6">
         <v>5478515.0</v>
       </c>
-      <c r="AJ88" s="7"/>
       <c r="AK88" s="8"/>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
       <c r="AN88" s="7"/>
-      <c r="AO88" s="6">
+      <c r="AO88" s="8"/>
+      <c r="AP88" s="6">
         <v>59470.0</v>
       </c>
-      <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
       <c r="AR88" s="7"/>
       <c r="AS88" s="7"/>
-      <c r="AT88" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU88" s="6">
+      <c r="AT88" s="8"/>
+      <c r="AU88" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AV88" s="6">
         <v>575.0</v>
       </c>
-      <c r="AV88" s="9"/>
       <c r="AW88" s="9"/>
       <c r="AX88" s="9"/>
       <c r="AY88" s="9"/>
@@ -10307,18 +10324,18 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -10344,10 +10361,10 @@
       <c r="T89" s="6">
         <v>100186.0</v>
       </c>
-      <c r="U89" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="V89" s="7"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
@@ -10356,36 +10373,36 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
-      <c r="AE89" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF89" s="7"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="AG89" s="7"/>
       <c r="AH89" s="7"/>
-      <c r="AI89" s="6">
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="6">
         <v>5473115.0</v>
       </c>
-      <c r="AJ89" s="7"/>
-      <c r="AK89" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AL89" s="7"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="AM89" s="7"/>
       <c r="AN89" s="7"/>
-      <c r="AO89" s="6">
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="6">
         <v>64651.0</v>
       </c>
-      <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
       <c r="AR89" s="7"/>
       <c r="AS89" s="7"/>
-      <c r="AT89" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AU89" s="6">
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AV89" s="6">
         <v>683.0</v>
       </c>
-      <c r="AV89" s="9"/>
       <c r="AW89" s="9"/>
       <c r="AX89" s="9"/>
       <c r="AY89" s="9"/>
@@ -10413,13 +10430,13 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -10464,10 +10481,10 @@
       <c r="AR90" s="7"/>
       <c r="AS90" s="7"/>
       <c r="AT90" s="7"/>
-      <c r="AU90" s="6">
+      <c r="AU90" s="8"/>
+      <c r="AV90" s="6">
         <v>453.0</v>
       </c>
-      <c r="AV90" s="9"/>
       <c r="AW90" s="9"/>
       <c r="AX90" s="9"/>
       <c r="AY90" s="9"/>
@@ -10495,13 +10512,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -10546,10 +10563,10 @@
       <c r="AR91" s="7"/>
       <c r="AS91" s="7"/>
       <c r="AT91" s="7"/>
-      <c r="AU91" s="6">
+      <c r="AU91" s="8"/>
+      <c r="AV91" s="6">
         <v>686.0</v>
       </c>
-      <c r="AV91" s="9"/>
       <c r="AW91" s="9"/>
       <c r="AX91" s="9"/>
       <c r="AY91" s="9"/>
@@ -10577,13 +10594,13 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -10628,10 +10645,10 @@
       <c r="AR92" s="7"/>
       <c r="AS92" s="7"/>
       <c r="AT92" s="7"/>
-      <c r="AU92" s="6">
+      <c r="AU92" s="8"/>
+      <c r="AV92" s="6">
         <v>372.0</v>
       </c>
-      <c r="AV92" s="9"/>
       <c r="AW92" s="9"/>
       <c r="AX92" s="9"/>
       <c r="AY92" s="9"/>
@@ -10659,13 +10676,13 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -10698,42 +10715,42 @@
       </c>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="X93" s="7"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
-      <c r="AE93" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF93" s="7"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="AG93" s="7"/>
       <c r="AH93" s="7"/>
-      <c r="AI93" s="6">
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="6">
         <v>547442.0</v>
       </c>
-      <c r="AJ93" s="7"/>
       <c r="AK93" s="8"/>
       <c r="AL93" s="7"/>
       <c r="AM93" s="7"/>
       <c r="AN93" s="7"/>
-      <c r="AO93" s="6">
+      <c r="AO93" s="8"/>
+      <c r="AP93" s="6">
         <v>51870.0</v>
       </c>
-      <c r="AP93" s="7"/>
       <c r="AQ93" s="7"/>
       <c r="AR93" s="7"/>
       <c r="AS93" s="7"/>
       <c r="AT93" s="7"/>
-      <c r="AU93" s="6">
+      <c r="AU93" s="8"/>
+      <c r="AV93" s="6">
         <v>373.0</v>
       </c>
-      <c r="AV93" s="9"/>
       <c r="AW93" s="9"/>
       <c r="AX93" s="9"/>
       <c r="AY93" s="9"/>
@@ -10761,13 +10778,13 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -10796,10 +10813,10 @@
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
-      <c r="AE94" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF94" s="7"/>
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="AG94" s="7"/>
       <c r="AH94" s="7"/>
       <c r="AI94" s="7"/>
@@ -10808,20 +10825,20 @@
       <c r="AL94" s="7"/>
       <c r="AM94" s="7"/>
       <c r="AN94" s="7"/>
-      <c r="AO94" s="6">
+      <c r="AO94" s="8"/>
+      <c r="AP94" s="6">
         <v>61000.0</v>
       </c>
-      <c r="AP94" s="7"/>
       <c r="AQ94" s="7"/>
       <c r="AR94" s="7"/>
       <c r="AS94" s="7"/>
-      <c r="AT94" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AU94" s="6">
+      <c r="AT94" s="8"/>
+      <c r="AU94" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AV94" s="6">
         <v>628.0</v>
       </c>
-      <c r="AV94" s="9"/>
       <c r="AW94" s="9"/>
       <c r="AX94" s="9"/>
       <c r="AY94" s="9"/>
@@ -10849,13 +10866,13 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -10884,10 +10901,10 @@
       <c r="AB95" s="7"/>
       <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
-      <c r="AE95" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF95" s="7"/>
+      <c r="AE95" s="8"/>
+      <c r="AF95" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="AG95" s="7"/>
       <c r="AH95" s="7"/>
       <c r="AI95" s="7"/>
@@ -10902,10 +10919,10 @@
       <c r="AR95" s="7"/>
       <c r="AS95" s="7"/>
       <c r="AT95" s="7"/>
-      <c r="AU95" s="6">
+      <c r="AU95" s="8"/>
+      <c r="AV95" s="6">
         <v>628.0</v>
       </c>
-      <c r="AV95" s="9"/>
       <c r="AW95" s="9"/>
       <c r="AX95" s="9"/>
       <c r="AY95" s="9"/>
@@ -10933,13 +10950,13 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -10974,24 +10991,24 @@
       <c r="AH96" s="7"/>
       <c r="AI96" s="7"/>
       <c r="AJ96" s="7"/>
-      <c r="AK96" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL96" s="7"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="AM96" s="7"/>
       <c r="AN96" s="7"/>
-      <c r="AO96" s="6">
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="6">
         <v>64091.0</v>
       </c>
-      <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
       <c r="AS96" s="7"/>
       <c r="AT96" s="7"/>
-      <c r="AU96" s="6">
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="6">
         <v>684.0</v>
       </c>
-      <c r="AV96" s="9"/>
       <c r="AW96" s="9"/>
       <c r="AX96" s="9"/>
       <c r="AY96" s="9"/>
@@ -11019,13 +11036,13 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -11060,24 +11077,24 @@
       <c r="AH97" s="7"/>
       <c r="AI97" s="7"/>
       <c r="AJ97" s="7"/>
-      <c r="AK97" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL97" s="7"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="AM97" s="7"/>
       <c r="AN97" s="7"/>
-      <c r="AO97" s="6">
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="6">
         <v>65521.0</v>
       </c>
-      <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
       <c r="AS97" s="7"/>
       <c r="AT97" s="7"/>
-      <c r="AU97" s="6">
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="6">
         <v>694.0</v>
       </c>
-      <c r="AV97" s="9"/>
       <c r="AW97" s="9"/>
       <c r="AX97" s="9"/>
       <c r="AY97" s="9"/>
@@ -11105,13 +11122,13 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -11132,10 +11149,10 @@
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
-      <c r="W98" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="X98" s="7"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
@@ -11148,26 +11165,26 @@
       <c r="AH98" s="7"/>
       <c r="AI98" s="7"/>
       <c r="AJ98" s="7"/>
-      <c r="AK98" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL98" s="7"/>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="AM98" s="7"/>
       <c r="AN98" s="7"/>
-      <c r="AO98" s="6">
+      <c r="AO98" s="8"/>
+      <c r="AP98" s="6">
         <v>60262.0</v>
       </c>
-      <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
       <c r="AS98" s="7"/>
-      <c r="AT98" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU98" s="6">
+      <c r="AT98" s="8"/>
+      <c r="AU98" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AV98" s="6">
         <v>691.0</v>
       </c>
-      <c r="AV98" s="9"/>
       <c r="AW98" s="9"/>
       <c r="AX98" s="9"/>
       <c r="AY98" s="9"/>
@@ -11195,18 +11212,18 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -11235,53 +11252,53 @@
         <v>79846.0</v>
       </c>
       <c r="U99" s="7"/>
-      <c r="V99" s="6">
+      <c r="V99" s="8"/>
+      <c r="W99" s="6">
         <v>578.0</v>
       </c>
-      <c r="W99" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="X99" s="7"/>
+      <c r="X99" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7"/>
-      <c r="AD99" s="6" t="s">
-        <v>475</v>
-      </c>
+      <c r="AD99" s="8"/>
       <c r="AE99" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF99" s="7"/>
-      <c r="AG99" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AH99" s="7"/>
-      <c r="AI99" s="6">
+      <c r="AF99" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="6">
         <v>547731.0</v>
       </c>
-      <c r="AJ99" s="7"/>
-      <c r="AK99" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL99" s="7"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="AM99" s="7"/>
-      <c r="AN99" s="6">
+      <c r="AN99" s="8"/>
+      <c r="AO99" s="6">
         <v>55178.0</v>
       </c>
-      <c r="AO99" s="6">
+      <c r="AP99" s="6">
         <v>51195.0</v>
       </c>
-      <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
       <c r="AS99" s="7"/>
       <c r="AT99" s="7"/>
-      <c r="AU99" s="6">
+      <c r="AU99" s="8"/>
+      <c r="AV99" s="6">
         <v>234.0</v>
       </c>
-      <c r="AV99" s="9"/>
       <c r="AW99" s="9"/>
       <c r="AX99" s="9"/>
       <c r="AY99" s="9"/>
@@ -11309,13 +11326,13 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -11354,18 +11371,18 @@
       <c r="AL100" s="7"/>
       <c r="AM100" s="7"/>
       <c r="AN100" s="7"/>
-      <c r="AO100" s="6">
+      <c r="AO100" s="8"/>
+      <c r="AP100" s="6">
         <v>60766.0</v>
       </c>
-      <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
       <c r="AS100" s="7"/>
       <c r="AT100" s="7"/>
-      <c r="AU100" s="6">
+      <c r="AU100" s="8"/>
+      <c r="AV100" s="6">
         <v>610.0</v>
       </c>
-      <c r="AV100" s="9"/>
       <c r="AW100" s="9"/>
       <c r="AX100" s="9"/>
       <c r="AY100" s="9"/>
@@ -11393,13 +11410,13 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -11421,49 +11438,49 @@
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-      <c r="V101" s="6">
+      <c r="V101" s="8"/>
+      <c r="W101" s="6">
         <v>579.0</v>
       </c>
-      <c r="W101" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="X101" s="7"/>
+      <c r="X101" s="6" t="s">
+        <v>485</v>
+      </c>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7"/>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
-      <c r="AE101" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF101" s="7"/>
-      <c r="AG101" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH101" s="7"/>
-      <c r="AI101" s="6">
+      <c r="AE101" s="8"/>
+      <c r="AF101" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG101" s="8"/>
+      <c r="AH101" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI101" s="8"/>
+      <c r="AJ101" s="6">
         <v>547428.0</v>
       </c>
-      <c r="AJ101" s="7"/>
-      <c r="AK101" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL101" s="7"/>
+      <c r="AK101" s="8"/>
+      <c r="AL101" s="6" t="s">
+        <v>488</v>
+      </c>
       <c r="AM101" s="7"/>
       <c r="AN101" s="7"/>
-      <c r="AO101" s="6">
+      <c r="AO101" s="8"/>
+      <c r="AP101" s="6">
         <v>453770.0</v>
       </c>
-      <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
       <c r="AS101" s="7"/>
       <c r="AT101" s="7"/>
-      <c r="AU101" s="6">
+      <c r="AU101" s="8"/>
+      <c r="AV101" s="6">
         <v>255.0</v>
       </c>
-      <c r="AV101" s="9"/>
       <c r="AW101" s="9"/>
       <c r="AX101" s="9"/>
       <c r="AY101" s="9"/>
@@ -11491,18 +11508,18 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -11530,32 +11547,32 @@
       <c r="AD102" s="7"/>
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
-      <c r="AG102" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH102" s="7"/>
+      <c r="AG102" s="8"/>
+      <c r="AH102" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="AI102" s="7"/>
       <c r="AJ102" s="7"/>
-      <c r="AK102" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL102" s="7"/>
+      <c r="AK102" s="8"/>
+      <c r="AL102" s="6" t="s">
+        <v>493</v>
+      </c>
       <c r="AM102" s="7"/>
       <c r="AN102" s="7"/>
-      <c r="AO102" s="6">
+      <c r="AO102" s="8"/>
+      <c r="AP102" s="6">
         <v>56126.0</v>
       </c>
-      <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
       <c r="AS102" s="7"/>
-      <c r="AT102" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="AU102" s="6">
+      <c r="AT102" s="8"/>
+      <c r="AU102" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV102" s="6">
         <v>572.0</v>
       </c>
-      <c r="AV102" s="9"/>
       <c r="AW102" s="9"/>
       <c r="AX102" s="9"/>
       <c r="AY102" s="9"/>
@@ -11583,13 +11600,13 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -11628,18 +11645,18 @@
       <c r="AL103" s="7"/>
       <c r="AM103" s="7"/>
       <c r="AN103" s="7"/>
-      <c r="AO103" s="6">
+      <c r="AO103" s="8"/>
+      <c r="AP103" s="6">
         <v>54538.0</v>
       </c>
-      <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
       <c r="AS103" s="7"/>
       <c r="AT103" s="7"/>
-      <c r="AU103" s="6">
+      <c r="AU103" s="8"/>
+      <c r="AV103" s="6">
         <v>435.0</v>
       </c>
-      <c r="AV103" s="9"/>
       <c r="AW103" s="9"/>
       <c r="AX103" s="9"/>
       <c r="AY103" s="9"/>
@@ -11667,13 +11684,13 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -11712,18 +11729,18 @@
       <c r="AL104" s="7"/>
       <c r="AM104" s="7"/>
       <c r="AN104" s="7"/>
-      <c r="AO104" s="6">
+      <c r="AO104" s="8"/>
+      <c r="AP104" s="6">
         <v>54539.0</v>
       </c>
-      <c r="AP104" s="7"/>
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
       <c r="AS104" s="7"/>
       <c r="AT104" s="7"/>
-      <c r="AU104" s="6">
+      <c r="AU104" s="8"/>
+      <c r="AV104" s="6">
         <v>433.0</v>
       </c>
-      <c r="AV104" s="9"/>
       <c r="AW104" s="9"/>
       <c r="AX104" s="9"/>
       <c r="AY104" s="9"/>
@@ -11751,18 +11768,18 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -11804,10 +11821,10 @@
       <c r="AR105" s="7"/>
       <c r="AS105" s="7"/>
       <c r="AT105" s="7"/>
-      <c r="AU105" s="6">
+      <c r="AU105" s="8"/>
+      <c r="AV105" s="6">
         <v>711.0</v>
       </c>
-      <c r="AV105" s="9"/>
       <c r="AW105" s="9"/>
       <c r="AX105" s="9"/>
       <c r="AY105" s="9"/>
@@ -11835,13 +11852,13 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -11860,10 +11877,10 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
-      <c r="U106" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="V106" s="7"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="6" t="s">
+        <v>504</v>
+      </c>
       <c r="W106" s="7"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
@@ -11872,32 +11889,32 @@
       <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
       <c r="AD106" s="7"/>
-      <c r="AE106" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF106" s="7"/>
+      <c r="AE106" s="8"/>
+      <c r="AF106" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="AG106" s="7"/>
       <c r="AH106" s="7"/>
       <c r="AI106" s="7"/>
       <c r="AJ106" s="7"/>
-      <c r="AK106" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="AL106" s="7"/>
+      <c r="AK106" s="8"/>
+      <c r="AL106" s="6" t="s">
+        <v>506</v>
+      </c>
       <c r="AM106" s="7"/>
       <c r="AN106" s="7"/>
-      <c r="AO106" s="6">
+      <c r="AO106" s="8"/>
+      <c r="AP106" s="6">
         <v>59446.0</v>
       </c>
-      <c r="AP106" s="7"/>
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
       <c r="AS106" s="7"/>
       <c r="AT106" s="7"/>
-      <c r="AU106" s="6">
+      <c r="AU106" s="8"/>
+      <c r="AV106" s="6">
         <v>584.0</v>
       </c>
-      <c r="AV106" s="9"/>
       <c r="AW106" s="9"/>
       <c r="AX106" s="9"/>
       <c r="AY106" s="9"/>
@@ -11925,13 +11942,13 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -11950,10 +11967,10 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
-      <c r="U107" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="V107" s="7"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="W107" s="7"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
@@ -11964,30 +11981,30 @@
       <c r="AD107" s="7"/>
       <c r="AE107" s="7"/>
       <c r="AF107" s="7"/>
-      <c r="AG107" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH107" s="7"/>
-      <c r="AI107" s="6">
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="6">
         <v>547918.0</v>
       </c>
-      <c r="AJ107" s="7"/>
       <c r="AK107" s="8"/>
       <c r="AL107" s="7"/>
       <c r="AM107" s="7"/>
       <c r="AN107" s="7"/>
-      <c r="AO107" s="6">
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="6">
         <v>66491.0</v>
       </c>
-      <c r="AP107" s="7"/>
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
       <c r="AS107" s="7"/>
       <c r="AT107" s="7"/>
-      <c r="AU107" s="6">
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="6">
         <v>727.0</v>
       </c>
-      <c r="AV107" s="9"/>
       <c r="AW107" s="9"/>
       <c r="AX107" s="9"/>
       <c r="AY107" s="9"/>
@@ -12015,13 +12032,13 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -12056,24 +12073,24 @@
       <c r="AH108" s="7"/>
       <c r="AI108" s="7"/>
       <c r="AJ108" s="7"/>
-      <c r="AK108" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="AL108" s="7"/>
+      <c r="AK108" s="8"/>
+      <c r="AL108" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="AM108" s="7"/>
       <c r="AN108" s="7"/>
-      <c r="AO108" s="6">
+      <c r="AO108" s="8"/>
+      <c r="AP108" s="6">
         <v>64090.0</v>
       </c>
-      <c r="AP108" s="7"/>
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
       <c r="AS108" s="7"/>
       <c r="AT108" s="7"/>
-      <c r="AU108" s="6">
+      <c r="AU108" s="8"/>
+      <c r="AV108" s="6">
         <v>685.0</v>
       </c>
-      <c r="AV108" s="9"/>
       <c r="AW108" s="9"/>
       <c r="AX108" s="9"/>
       <c r="AY108" s="9"/>
@@ -12101,18 +12118,18 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -12144,24 +12161,24 @@
       <c r="AH109" s="7"/>
       <c r="AI109" s="8"/>
       <c r="AJ109" s="7"/>
-      <c r="AK109" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AL109" s="7"/>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="AM109" s="7"/>
       <c r="AN109" s="7"/>
-      <c r="AO109" s="6">
+      <c r="AO109" s="8"/>
+      <c r="AP109" s="6">
         <v>62765.0</v>
       </c>
-      <c r="AP109" s="7"/>
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
       <c r="AS109" s="7"/>
       <c r="AT109" s="7"/>
-      <c r="AU109" s="6">
+      <c r="AU109" s="8"/>
+      <c r="AV109" s="6">
         <v>667.0</v>
       </c>
-      <c r="AV109" s="9"/>
       <c r="AW109" s="9"/>
       <c r="AX109" s="9"/>
       <c r="AY109" s="9"/>
@@ -12189,13 +12206,13 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -12223,10 +12240,10 @@
       <c r="AA110" s="7"/>
       <c r="AB110" s="7"/>
       <c r="AC110" s="7"/>
-      <c r="AD110" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AE110" s="7"/>
+      <c r="AD110" s="8"/>
+      <c r="AE110" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="AF110" s="7"/>
       <c r="AG110" s="7"/>
       <c r="AH110" s="7"/>
@@ -12242,10 +12259,10 @@
       <c r="AR110" s="8"/>
       <c r="AS110" s="7"/>
       <c r="AT110" s="7"/>
-      <c r="AU110" s="6">
+      <c r="AU110" s="8"/>
+      <c r="AV110" s="6">
         <v>314.0</v>
       </c>
-      <c r="AV110" s="9"/>
       <c r="AW110" s="9"/>
       <c r="AX110" s="9"/>
       <c r="AY110" s="9"/>
@@ -12273,18 +12290,18 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="6" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -12316,24 +12333,24 @@
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
       <c r="AJ111" s="7"/>
-      <c r="AK111" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AL111" s="7"/>
+      <c r="AK111" s="8"/>
+      <c r="AL111" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="AM111" s="7"/>
       <c r="AN111" s="7"/>
-      <c r="AO111" s="6">
+      <c r="AO111" s="8"/>
+      <c r="AP111" s="6">
         <v>62767.0</v>
       </c>
-      <c r="AP111" s="7"/>
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
       <c r="AS111" s="7"/>
       <c r="AT111" s="7"/>
-      <c r="AU111" s="6">
+      <c r="AU111" s="8"/>
+      <c r="AV111" s="6">
         <v>665.0</v>
       </c>
-      <c r="AV111" s="9"/>
       <c r="AW111" s="9"/>
       <c r="AX111" s="9"/>
       <c r="AY111" s="9"/>
@@ -12361,18 +12378,18 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -12404,24 +12421,24 @@
       <c r="AH112" s="7"/>
       <c r="AI112" s="7"/>
       <c r="AJ112" s="7"/>
-      <c r="AK112" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL112" s="7"/>
+      <c r="AK112" s="8"/>
+      <c r="AL112" s="6" t="s">
+        <v>530</v>
+      </c>
       <c r="AM112" s="7"/>
       <c r="AN112" s="7"/>
-      <c r="AO112" s="6">
+      <c r="AO112" s="8"/>
+      <c r="AP112" s="6">
         <v>65973.0</v>
       </c>
-      <c r="AP112" s="7"/>
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
       <c r="AS112" s="7"/>
       <c r="AT112" s="7"/>
-      <c r="AU112" s="6">
+      <c r="AU112" s="8"/>
+      <c r="AV112" s="6">
         <v>704.0</v>
       </c>
-      <c r="AV112" s="9"/>
       <c r="AW112" s="9"/>
       <c r="AX112" s="9"/>
       <c r="AY112" s="9"/>
@@ -12449,13 +12466,13 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -12490,26 +12507,26 @@
       <c r="AH113" s="7"/>
       <c r="AI113" s="7"/>
       <c r="AJ113" s="7"/>
-      <c r="AK113" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="AL113" s="7"/>
+      <c r="AK113" s="8"/>
+      <c r="AL113" s="6" t="s">
+        <v>533</v>
+      </c>
       <c r="AM113" s="7"/>
       <c r="AN113" s="7"/>
-      <c r="AO113" s="6">
+      <c r="AO113" s="8"/>
+      <c r="AP113" s="6">
         <v>60006.0</v>
       </c>
-      <c r="AP113" s="7"/>
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
       <c r="AS113" s="7"/>
-      <c r="AT113" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="AU113" s="6">
+      <c r="AT113" s="8"/>
+      <c r="AU113" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV113" s="6">
         <v>592.0</v>
       </c>
-      <c r="AV113" s="9"/>
       <c r="AW113" s="9"/>
       <c r="AX113" s="9"/>
       <c r="AY113" s="9"/>
@@ -12537,18 +12554,18 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="6" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -12574,10 +12591,10 @@
       <c r="T114" s="6">
         <v>97614.0</v>
       </c>
-      <c r="U114" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="V114" s="7"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="6" t="s">
+        <v>538</v>
+      </c>
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
@@ -12585,39 +12602,39 @@
       <c r="AA114" s="7"/>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
-      <c r="AD114" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="AE114" s="7"/>
+      <c r="AD114" s="8"/>
+      <c r="AE114" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="AF114" s="7"/>
-      <c r="AG114" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH114" s="7"/>
-      <c r="AI114" s="6">
+      <c r="AG114" s="8"/>
+      <c r="AH114" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="AI114" s="8"/>
+      <c r="AJ114" s="6">
         <v>5472413.0</v>
       </c>
-      <c r="AJ114" s="7"/>
-      <c r="AK114" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="AL114" s="7"/>
+      <c r="AK114" s="8"/>
+      <c r="AL114" s="6" t="s">
+        <v>541</v>
+      </c>
       <c r="AM114" s="7"/>
       <c r="AN114" s="7"/>
-      <c r="AO114" s="6">
+      <c r="AO114" s="8"/>
+      <c r="AP114" s="6">
         <v>61121.0</v>
       </c>
-      <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
       <c r="AS114" s="7"/>
-      <c r="AT114" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="AU114" s="6">
+      <c r="AT114" s="8"/>
+      <c r="AU114" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="AV114" s="6">
         <v>636.0</v>
       </c>
-      <c r="AV114" s="9"/>
       <c r="AW114" s="9"/>
       <c r="AX114" s="9"/>
       <c r="AY114" s="9"/>
@@ -12645,13 +12662,13 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -12705,13 +12722,13 @@
       <c r="AQ115" s="7"/>
       <c r="AR115" s="7"/>
       <c r="AS115" s="7"/>
-      <c r="AT115" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="AU115" s="6">
+      <c r="AT115" s="8"/>
+      <c r="AU115" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="AV115" s="6">
         <v>688.0</v>
       </c>
-      <c r="AV115" s="9"/>
       <c r="AW115" s="9"/>
       <c r="AX115" s="9"/>
       <c r="AY115" s="9"/>
@@ -12739,13 +12756,13 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -12764,10 +12781,10 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
-      <c r="U116" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="V116" s="7"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="W116" s="7"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
@@ -12778,34 +12795,34 @@
       <c r="AD116" s="7"/>
       <c r="AE116" s="7"/>
       <c r="AF116" s="7"/>
-      <c r="AG116" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AH116" s="7"/>
-      <c r="AI116" s="6">
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="6">
         <v>547917.0</v>
       </c>
-      <c r="AJ116" s="7"/>
-      <c r="AK116" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="AL116" s="7"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="AM116" s="7"/>
       <c r="AN116" s="7"/>
-      <c r="AO116" s="6">
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="6">
         <v>66490.0</v>
       </c>
-      <c r="AP116" s="7"/>
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
       <c r="AS116" s="7"/>
-      <c r="AT116" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="AU116" s="6">
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV116" s="6">
         <v>724.0</v>
       </c>
-      <c r="AV116" s="9"/>
       <c r="AW116" s="9"/>
       <c r="AX116" s="9"/>
       <c r="AY116" s="9"/>
@@ -12833,13 +12850,13 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -12874,26 +12891,26 @@
       <c r="AH117" s="7"/>
       <c r="AI117" s="7"/>
       <c r="AJ117" s="7"/>
-      <c r="AK117" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="AL117" s="7"/>
+      <c r="AK117" s="8"/>
+      <c r="AL117" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="AM117" s="7"/>
       <c r="AN117" s="7"/>
-      <c r="AO117" s="6">
+      <c r="AO117" s="8"/>
+      <c r="AP117" s="6">
         <v>66189.0</v>
       </c>
-      <c r="AP117" s="7"/>
       <c r="AQ117" s="7"/>
       <c r="AR117" s="7"/>
       <c r="AS117" s="7"/>
-      <c r="AT117" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="AU117" s="6">
+      <c r="AT117" s="8"/>
+      <c r="AU117" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="AV117" s="6">
         <v>716.0</v>
       </c>
-      <c r="AV117" s="9"/>
       <c r="AW117" s="9"/>
       <c r="AX117" s="9"/>
       <c r="AY117" s="9"/>
@@ -12921,13 +12938,13 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D118" s="6">
         <v>35740.0</v>
@@ -12952,52 +12969,52 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
       <c r="V118" s="7"/>
-      <c r="W118" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="X118" s="7"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="6" t="s">
+        <v>559</v>
+      </c>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
       <c r="AA118" s="7"/>
       <c r="AB118" s="7"/>
-      <c r="AC118" s="6">
+      <c r="AC118" s="8"/>
+      <c r="AD118" s="6">
         <v>5647186.0</v>
       </c>
-      <c r="AD118" s="6" t="s">
-        <v>558</v>
-      </c>
       <c r="AE118" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="AF118" s="7"/>
-      <c r="AG118" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="AH118" s="7"/>
-      <c r="AI118" s="6">
+      <c r="AF118" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG118" s="8"/>
+      <c r="AH118" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AI118" s="8"/>
+      <c r="AJ118" s="6">
         <v>547139.0</v>
       </c>
-      <c r="AJ118" s="7"/>
-      <c r="AK118" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="AL118" s="7"/>
+      <c r="AK118" s="8"/>
+      <c r="AL118" s="6" t="s">
+        <v>563</v>
+      </c>
       <c r="AM118" s="7"/>
       <c r="AN118" s="7"/>
-      <c r="AO118" s="6">
+      <c r="AO118" s="8"/>
+      <c r="AP118" s="6">
         <v>50143.0</v>
       </c>
-      <c r="AP118" s="7"/>
       <c r="AQ118" s="7"/>
       <c r="AR118" s="7"/>
       <c r="AS118" s="7"/>
-      <c r="AT118" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AU118" s="6">
+      <c r="AT118" s="8"/>
+      <c r="AU118" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AV118" s="6">
         <v>321.0</v>
       </c>
-      <c r="AV118" s="9"/>
       <c r="AW118" s="9"/>
       <c r="AX118" s="9"/>
       <c r="AY118" s="9"/>
@@ -13025,20 +13042,20 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="6">
         <v>31708.0</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -13057,49 +13074,49 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="6">
+      <c r="V119" s="8"/>
+      <c r="W119" s="6">
         <v>771.0</v>
       </c>
-      <c r="W119" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="X119" s="7"/>
+      <c r="X119" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
       <c r="AA119" s="7"/>
       <c r="AB119" s="7"/>
       <c r="AC119" s="7"/>
-      <c r="AD119" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE119" s="7"/>
+      <c r="AD119" s="8"/>
+      <c r="AE119" s="6" t="s">
+        <v>569</v>
+      </c>
       <c r="AF119" s="7"/>
-      <c r="AG119" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH119" s="7"/>
-      <c r="AI119" s="6">
+      <c r="AG119" s="8"/>
+      <c r="AH119" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI119" s="8"/>
+      <c r="AJ119" s="6">
         <v>547335.0</v>
       </c>
-      <c r="AJ119" s="7"/>
-      <c r="AK119" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="AL119" s="7"/>
+      <c r="AK119" s="8"/>
+      <c r="AL119" s="6" t="s">
+        <v>571</v>
+      </c>
       <c r="AM119" s="7"/>
       <c r="AN119" s="7"/>
-      <c r="AO119" s="6">
+      <c r="AO119" s="8"/>
+      <c r="AP119" s="6">
         <v>28778.0</v>
       </c>
-      <c r="AP119" s="7"/>
       <c r="AQ119" s="7"/>
       <c r="AR119" s="7"/>
       <c r="AS119" s="7"/>
       <c r="AT119" s="7"/>
-      <c r="AU119" s="6">
+      <c r="AU119" s="8"/>
+      <c r="AV119" s="6">
         <v>132.0</v>
       </c>
-      <c r="AV119" s="9"/>
       <c r="AW119" s="9"/>
       <c r="AX119" s="9"/>
       <c r="AY119" s="9"/>
@@ -13127,13 +13144,13 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -13178,10 +13195,10 @@
       <c r="AR120" s="7"/>
       <c r="AS120" s="7"/>
       <c r="AT120" s="7"/>
-      <c r="AU120" s="6">
+      <c r="AU120" s="8"/>
+      <c r="AV120" s="6">
         <v>449.0</v>
       </c>
-      <c r="AV120" s="9"/>
       <c r="AW120" s="9"/>
       <c r="AX120" s="9"/>
       <c r="AY120" s="9"/>
@@ -13209,13 +13226,13 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -13260,10 +13277,10 @@
       <c r="AR121" s="7"/>
       <c r="AS121" s="7"/>
       <c r="AT121" s="7"/>
-      <c r="AU121" s="6">
+      <c r="AU121" s="8"/>
+      <c r="AV121" s="6">
         <v>454.0</v>
       </c>
-      <c r="AV121" s="9"/>
       <c r="AW121" s="9"/>
       <c r="AX121" s="9"/>
       <c r="AY121" s="9"/>
@@ -13291,13 +13308,13 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -13335,39 +13352,39 @@
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
       <c r="AC122" s="7"/>
-      <c r="AD122" s="6" t="s">
-        <v>574</v>
-      </c>
+      <c r="AD122" s="8"/>
       <c r="AE122" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="AF122" s="7"/>
-      <c r="AG122" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="AH122" s="7"/>
-      <c r="AI122" s="6">
+      <c r="AF122" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG122" s="8"/>
+      <c r="AH122" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI122" s="8"/>
+      <c r="AJ122" s="6">
         <v>547477.0</v>
       </c>
-      <c r="AJ122" s="7"/>
-      <c r="AK122" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL122" s="7"/>
+      <c r="AK122" s="8"/>
+      <c r="AL122" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="AM122" s="7"/>
       <c r="AN122" s="7"/>
-      <c r="AO122" s="6">
+      <c r="AO122" s="8"/>
+      <c r="AP122" s="6">
         <v>54195.0</v>
       </c>
-      <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
       <c r="AR122" s="7"/>
       <c r="AS122" s="7"/>
       <c r="AT122" s="7"/>
-      <c r="AU122" s="6">
+      <c r="AU122" s="8"/>
+      <c r="AV122" s="6">
         <v>395.0</v>
       </c>
-      <c r="AV122" s="9"/>
       <c r="AW122" s="9"/>
       <c r="AX122" s="9"/>
       <c r="AY122" s="9"/>
@@ -13395,13 +13412,13 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -13434,28 +13451,28 @@
       <c r="AF123" s="7"/>
       <c r="AG123" s="7"/>
       <c r="AH123" s="7"/>
-      <c r="AI123" s="6">
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="6">
         <v>5476911.0</v>
       </c>
-      <c r="AJ123" s="7"/>
-      <c r="AK123" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="AL123" s="7"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="AM123" s="7"/>
       <c r="AN123" s="7"/>
-      <c r="AO123" s="6">
+      <c r="AO123" s="8"/>
+      <c r="AP123" s="6">
         <v>65570.0</v>
       </c>
-      <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
       <c r="AS123" s="7"/>
       <c r="AT123" s="7"/>
-      <c r="AU123" s="6">
+      <c r="AU123" s="8"/>
+      <c r="AV123" s="6">
         <v>697.0</v>
       </c>
-      <c r="AV123" s="9"/>
       <c r="AW123" s="9"/>
       <c r="AX123" s="9"/>
       <c r="AY123" s="9"/>
@@ -13483,13 +13500,13 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -13510,10 +13527,10 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
-      <c r="U124" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="V124" s="7"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="6" t="s">
+        <v>586</v>
+      </c>
       <c r="W124" s="7"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
@@ -13521,39 +13538,39 @@
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
       <c r="AC124" s="7"/>
-      <c r="AD124" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE124" s="7"/>
+      <c r="AD124" s="8"/>
+      <c r="AE124" s="6" t="s">
+        <v>587</v>
+      </c>
       <c r="AF124" s="7"/>
-      <c r="AG124" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="AH124" s="7"/>
-      <c r="AI124" s="6">
+      <c r="AG124" s="8"/>
+      <c r="AH124" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AI124" s="8"/>
+      <c r="AJ124" s="6">
         <v>5478518.0</v>
       </c>
-      <c r="AJ124" s="7"/>
-      <c r="AK124" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="AL124" s="7"/>
+      <c r="AK124" s="8"/>
+      <c r="AL124" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="AM124" s="7"/>
       <c r="AN124" s="7"/>
-      <c r="AO124" s="6">
+      <c r="AO124" s="8"/>
+      <c r="AP124" s="6">
         <v>62384.0</v>
       </c>
-      <c r="AP124" s="7"/>
       <c r="AQ124" s="7"/>
       <c r="AR124" s="7"/>
       <c r="AS124" s="7"/>
-      <c r="AT124" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU124" s="6">
+      <c r="AT124" s="8"/>
+      <c r="AU124" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AV124" s="6">
         <v>675.0</v>
       </c>
-      <c r="AV124" s="9"/>
       <c r="AW124" s="9"/>
       <c r="AX124" s="9"/>
       <c r="AY124" s="9"/>
@@ -13581,13 +13598,13 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -13608,10 +13625,10 @@
       <c r="T125" s="8"/>
       <c r="U125" s="7"/>
       <c r="V125" s="8"/>
-      <c r="W125" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="X125" s="7"/>
+      <c r="W125" s="8"/>
+      <c r="X125" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
       <c r="AA125" s="7"/>
@@ -13624,26 +13641,26 @@
       <c r="AH125" s="7"/>
       <c r="AI125" s="8"/>
       <c r="AJ125" s="7"/>
-      <c r="AK125" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="AL125" s="7"/>
+      <c r="AK125" s="8"/>
+      <c r="AL125" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="AM125" s="7"/>
       <c r="AN125" s="7"/>
-      <c r="AO125" s="6">
+      <c r="AO125" s="8"/>
+      <c r="AP125" s="6">
         <v>65883.0</v>
       </c>
-      <c r="AP125" s="7"/>
       <c r="AQ125" s="7"/>
       <c r="AR125" s="7"/>
       <c r="AS125" s="7"/>
-      <c r="AT125" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AU125" s="6">
+      <c r="AT125" s="8"/>
+      <c r="AU125" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV125" s="6">
         <v>713.0</v>
       </c>
-      <c r="AV125" s="9"/>
       <c r="AW125" s="9"/>
       <c r="AX125" s="9"/>
       <c r="AY125" s="9"/>
@@ -13671,13 +13688,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -13722,10 +13739,10 @@
       <c r="AR126" s="7"/>
       <c r="AS126" s="7"/>
       <c r="AT126" s="7"/>
-      <c r="AU126" s="6">
+      <c r="AU126" s="8"/>
+      <c r="AV126" s="6">
         <v>457.0</v>
       </c>
-      <c r="AV126" s="9"/>
       <c r="AW126" s="9"/>
       <c r="AX126" s="9"/>
       <c r="AY126" s="9"/>
@@ -13753,13 +13770,13 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -13792,44 +13809,44 @@
       </c>
       <c r="U127" s="7"/>
       <c r="V127" s="7"/>
-      <c r="W127" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="X127" s="7"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="6" t="s">
+        <v>600</v>
+      </c>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
       <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
       <c r="AC127" s="7"/>
       <c r="AD127" s="7"/>
-      <c r="AE127" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="AF127" s="7"/>
+      <c r="AE127" s="8"/>
+      <c r="AF127" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="AG127" s="7"/>
       <c r="AH127" s="7"/>
-      <c r="AI127" s="6">
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="6">
         <v>547858.0</v>
       </c>
-      <c r="AJ127" s="7"/>
-      <c r="AK127" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AL127" s="7"/>
+      <c r="AK127" s="8"/>
+      <c r="AL127" s="6" t="s">
+        <v>602</v>
+      </c>
       <c r="AM127" s="7"/>
       <c r="AN127" s="7"/>
-      <c r="AO127" s="6">
+      <c r="AO127" s="8"/>
+      <c r="AP127" s="6">
         <v>52063.0</v>
       </c>
-      <c r="AP127" s="7"/>
       <c r="AQ127" s="7"/>
       <c r="AR127" s="7"/>
       <c r="AS127" s="7"/>
       <c r="AT127" s="7"/>
-      <c r="AU127" s="6">
+      <c r="AU127" s="8"/>
+      <c r="AV127" s="6">
         <v>379.0</v>
       </c>
-      <c r="AV127" s="9"/>
       <c r="AW127" s="9"/>
       <c r="AX127" s="9"/>
       <c r="AY127" s="9"/>
@@ -13857,18 +13874,18 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -13886,42 +13903,42 @@
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
       <c r="V128" s="7"/>
-      <c r="W128" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="X128" s="7"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="6" t="s">
+        <v>606</v>
+      </c>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
       <c r="AC128" s="7"/>
-      <c r="AD128" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AE128" s="7"/>
+      <c r="AD128" s="8"/>
+      <c r="AE128" s="6" t="s">
+        <v>607</v>
+      </c>
       <c r="AF128" s="7"/>
       <c r="AG128" s="7"/>
       <c r="AH128" s="7"/>
       <c r="AI128" s="7"/>
       <c r="AJ128" s="7"/>
-      <c r="AK128" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AL128" s="7"/>
+      <c r="AK128" s="8"/>
+      <c r="AL128" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="AM128" s="7"/>
       <c r="AN128" s="7"/>
-      <c r="AO128" s="6">
+      <c r="AO128" s="8"/>
+      <c r="AP128" s="6">
         <v>62161.0</v>
       </c>
-      <c r="AP128" s="7"/>
       <c r="AQ128" s="7"/>
       <c r="AR128" s="7"/>
       <c r="AS128" s="7"/>
       <c r="AT128" s="7"/>
-      <c r="AU128" s="6">
+      <c r="AU128" s="8"/>
+      <c r="AV128" s="6">
         <v>549.0</v>
       </c>
-      <c r="AV128" s="9"/>
       <c r="AW128" s="9"/>
       <c r="AX128" s="9"/>
       <c r="AY128" s="9"/>
@@ -13949,13 +13966,13 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -13990,24 +14007,24 @@
       <c r="AH129" s="7"/>
       <c r="AI129" s="8"/>
       <c r="AJ129" s="7"/>
-      <c r="AK129" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="AL129" s="7"/>
+      <c r="AK129" s="8"/>
+      <c r="AL129" s="6" t="s">
+        <v>610</v>
+      </c>
       <c r="AM129" s="7"/>
       <c r="AN129" s="7"/>
-      <c r="AO129" s="6">
+      <c r="AO129" s="8"/>
+      <c r="AP129" s="6">
         <v>66734.0</v>
       </c>
-      <c r="AP129" s="7"/>
       <c r="AQ129" s="7"/>
       <c r="AR129" s="7"/>
       <c r="AS129" s="7"/>
       <c r="AT129" s="8"/>
-      <c r="AU129" s="6">
+      <c r="AU129" s="8"/>
+      <c r="AV129" s="6">
         <v>733.0</v>
       </c>
-      <c r="AV129" s="9"/>
       <c r="AW129" s="9"/>
       <c r="AX129" s="9"/>
       <c r="AY129" s="9"/>
@@ -14035,18 +14052,18 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="7"/>
       <c r="F130" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -14082,18 +14099,18 @@
       <c r="AL130" s="7"/>
       <c r="AM130" s="7"/>
       <c r="AN130" s="7"/>
-      <c r="AO130" s="6">
+      <c r="AO130" s="8"/>
+      <c r="AP130" s="6">
         <v>61578.0</v>
       </c>
-      <c r="AP130" s="7"/>
       <c r="AQ130" s="7"/>
       <c r="AR130" s="7"/>
       <c r="AS130" s="7"/>
       <c r="AT130" s="7"/>
-      <c r="AU130" s="6">
+      <c r="AU130" s="8"/>
+      <c r="AV130" s="6">
         <v>649.0</v>
       </c>
-      <c r="AV130" s="9"/>
       <c r="AW130" s="9"/>
       <c r="AX130" s="9"/>
       <c r="AY130" s="9"/>
@@ -14121,13 +14138,13 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -14172,10 +14189,10 @@
       <c r="AR131" s="7"/>
       <c r="AS131" s="7"/>
       <c r="AT131" s="8"/>
-      <c r="AU131" s="6">
+      <c r="AU131" s="8"/>
+      <c r="AV131" s="6">
         <v>452.0</v>
       </c>
-      <c r="AV131" s="9"/>
       <c r="AW131" s="9"/>
       <c r="AX131" s="9"/>
       <c r="AY131" s="9"/>
@@ -14203,13 +14220,13 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -14244,24 +14261,24 @@
       <c r="AH132" s="7"/>
       <c r="AI132" s="7"/>
       <c r="AJ132" s="7"/>
-      <c r="AK132" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="AL132" s="7"/>
+      <c r="AK132" s="8"/>
+      <c r="AL132" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="AM132" s="7"/>
       <c r="AN132" s="7"/>
-      <c r="AO132" s="6">
+      <c r="AO132" s="8"/>
+      <c r="AP132" s="6">
         <v>62766.0</v>
       </c>
-      <c r="AP132" s="7"/>
       <c r="AQ132" s="7"/>
       <c r="AR132" s="7"/>
       <c r="AS132" s="7"/>
       <c r="AT132" s="8"/>
-      <c r="AU132" s="6">
+      <c r="AU132" s="8"/>
+      <c r="AV132" s="6">
         <v>666.0</v>
       </c>
-      <c r="AV132" s="9"/>
       <c r="AW132" s="9"/>
       <c r="AX132" s="9"/>
       <c r="AY132" s="9"/>
@@ -14289,13 +14306,13 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -14330,24 +14347,24 @@
       <c r="AH133" s="7"/>
       <c r="AI133" s="7"/>
       <c r="AJ133" s="7"/>
-      <c r="AK133" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AL133" s="7"/>
+      <c r="AK133" s="8"/>
+      <c r="AL133" s="6" t="s">
+        <v>619</v>
+      </c>
       <c r="AM133" s="7"/>
       <c r="AN133" s="7"/>
-      <c r="AO133" s="6">
+      <c r="AO133" s="8"/>
+      <c r="AP133" s="6">
         <v>66485.0</v>
       </c>
-      <c r="AP133" s="7"/>
       <c r="AQ133" s="7"/>
       <c r="AR133" s="7"/>
       <c r="AS133" s="7"/>
       <c r="AT133" s="7"/>
-      <c r="AU133" s="6">
+      <c r="AU133" s="8"/>
+      <c r="AV133" s="6">
         <v>720.0</v>
       </c>
-      <c r="AV133" s="9"/>
       <c r="AW133" s="9"/>
       <c r="AX133" s="9"/>
       <c r="AY133" s="9"/>
@@ -14375,13 +14392,13 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
@@ -14401,10 +14418,10 @@
       <c r="S134" s="10"/>
       <c r="T134" s="10"/>
       <c r="U134" s="10"/>
-      <c r="V134" s="6">
+      <c r="V134" s="8"/>
+      <c r="W134" s="6">
         <v>7644.0</v>
       </c>
-      <c r="W134" s="10"/>
       <c r="X134" s="10"/>
       <c r="Y134" s="10"/>
       <c r="Z134" s="10"/>
@@ -14412,10 +14429,10 @@
       <c r="AB134" s="10"/>
       <c r="AC134" s="8"/>
       <c r="AD134" s="10"/>
-      <c r="AE134" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="AF134" s="10"/>
+      <c r="AE134" s="8"/>
+      <c r="AF134" s="6" t="s">
+        <v>622</v>
+      </c>
       <c r="AG134" s="10"/>
       <c r="AH134" s="10"/>
       <c r="AI134" s="10"/>
@@ -14424,34 +14441,35 @@
       <c r="AL134" s="10"/>
       <c r="AM134" s="10"/>
       <c r="AN134" s="10"/>
-      <c r="AO134" s="6">
+      <c r="AO134" s="8"/>
+      <c r="AP134" s="6">
         <v>55676.0</v>
       </c>
-      <c r="AP134" s="10"/>
       <c r="AQ134" s="10"/>
       <c r="AR134" s="10"/>
       <c r="AS134" s="10"/>
-      <c r="AT134" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="AU134" s="6">
+      <c r="AT134" s="8"/>
+      <c r="AU134" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV134" s="6">
         <v>472.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -14481,42 +14499,43 @@
       <c r="AF135" s="10"/>
       <c r="AG135" s="10"/>
       <c r="AH135" s="10"/>
-      <c r="AI135" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="AJ135" s="10"/>
-      <c r="AK135" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="AL135" s="10"/>
+      <c r="AI135" s="8"/>
+      <c r="AJ135" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK135" s="8"/>
+      <c r="AL135" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="AM135" s="10"/>
       <c r="AN135" s="10"/>
-      <c r="AO135" s="6">
+      <c r="AO135" s="8"/>
+      <c r="AP135" s="6">
         <v>57577.0</v>
       </c>
-      <c r="AP135" s="10"/>
       <c r="AQ135" s="10"/>
       <c r="AR135" s="10"/>
       <c r="AS135" s="10"/>
       <c r="AT135" s="10"/>
-      <c r="AU135" s="6">
+      <c r="AU135" s="8"/>
+      <c r="AV135" s="6">
         <v>507.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -14559,16 +14578,17 @@
       <c r="AS136" s="10"/>
       <c r="AT136" s="8"/>
       <c r="AU136" s="8"/>
+      <c r="AV136" s="10"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
@@ -14601,14 +14621,14 @@
       <c r="AF137" s="10"/>
       <c r="AG137" s="10"/>
       <c r="AH137" s="10"/>
-      <c r="AI137" s="6">
+      <c r="AI137" s="8"/>
+      <c r="AJ137" s="6">
         <v>547787.0</v>
       </c>
-      <c r="AJ137" s="10"/>
-      <c r="AK137" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="AL137" s="10"/>
+      <c r="AK137" s="8"/>
+      <c r="AL137" s="6" t="s">
+        <v>630</v>
+      </c>
       <c r="AM137" s="10"/>
       <c r="AN137" s="10"/>
       <c r="AO137" s="8"/>
@@ -14617,19 +14637,20 @@
       <c r="AR137" s="10"/>
       <c r="AS137" s="10"/>
       <c r="AT137" s="10"/>
-      <c r="AU137" s="6">
+      <c r="AU137" s="8"/>
+      <c r="AV137" s="6">
         <v>717.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
@@ -14664,38 +14685,39 @@
       <c r="AH138" s="10"/>
       <c r="AI138" s="10"/>
       <c r="AJ138" s="10"/>
-      <c r="AK138" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="AL138" s="10"/>
+      <c r="AK138" s="8"/>
+      <c r="AL138" s="6" t="s">
+        <v>633</v>
+      </c>
       <c r="AM138" s="10"/>
       <c r="AN138" s="10"/>
-      <c r="AO138" s="6">
+      <c r="AO138" s="8"/>
+      <c r="AP138" s="6">
         <v>62768.0</v>
       </c>
-      <c r="AP138" s="10"/>
       <c r="AQ138" s="10"/>
       <c r="AR138" s="10"/>
       <c r="AS138" s="10"/>
       <c r="AT138" s="8"/>
-      <c r="AU138" s="6">
+      <c r="AU138" s="8"/>
+      <c r="AV138" s="6">
         <v>672.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="6" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -14737,24 +14759,25 @@
       <c r="AR139" s="10"/>
       <c r="AS139" s="10"/>
       <c r="AT139" s="10"/>
-      <c r="AU139" s="6">
+      <c r="AU139" s="8"/>
+      <c r="AV139" s="6">
         <v>559.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -14786,26 +14809,127 @@
       <c r="AH140" s="10"/>
       <c r="AI140" s="10"/>
       <c r="AJ140" s="10"/>
-      <c r="AK140" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="AL140" s="10"/>
+      <c r="AK140" s="8"/>
+      <c r="AL140" s="6" t="s">
+        <v>638</v>
+      </c>
       <c r="AM140" s="10"/>
       <c r="AN140" s="10"/>
-      <c r="AO140" s="6">
+      <c r="AO140" s="8"/>
+      <c r="AP140" s="6">
         <v>65879.0</v>
       </c>
-      <c r="AP140" s="10"/>
       <c r="AQ140" s="10"/>
       <c r="AR140" s="10"/>
       <c r="AS140" s="10"/>
       <c r="AT140" s="10"/>
-      <c r="AU140" s="6">
+      <c r="AU140" s="8"/>
+      <c r="AV140" s="6">
         <v>709.0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="11"/>
+      <c r="U141" s="11"/>
+      <c r="V141" s="11"/>
+      <c r="W141" s="11"/>
+      <c r="X141" s="11"/>
+      <c r="Y141" s="11"/>
+      <c r="Z141" s="11"/>
+      <c r="AA141" s="11"/>
+      <c r="AB141" s="11"/>
+      <c r="AC141" s="11"/>
+      <c r="AD141" s="11"/>
+      <c r="AE141" s="11"/>
+      <c r="AF141" s="11"/>
+      <c r="AG141" s="11"/>
+      <c r="AH141" s="11"/>
+      <c r="AI141" s="11"/>
+      <c r="AJ141" s="11"/>
+      <c r="AK141" s="11"/>
+      <c r="AL141" s="11"/>
+      <c r="AM141" s="11"/>
+      <c r="AN141" s="11"/>
+      <c r="AO141" s="11"/>
+      <c r="AP141" s="11"/>
+      <c r="AQ141" s="11"/>
+      <c r="AR141" s="11"/>
+      <c r="AS141" s="11"/>
+      <c r="AT141" s="11"/>
+      <c r="AU141" s="11"/>
+      <c r="AV141" s="11"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+      <c r="U142" s="11"/>
+      <c r="V142" s="11"/>
+      <c r="W142" s="11"/>
+      <c r="X142" s="11"/>
+      <c r="Y142" s="11"/>
+      <c r="Z142" s="11"/>
+      <c r="AA142" s="11"/>
+      <c r="AB142" s="11"/>
+      <c r="AC142" s="11"/>
+      <c r="AD142" s="11"/>
+      <c r="AE142" s="11"/>
+      <c r="AF142" s="11"/>
+      <c r="AG142" s="11"/>
+      <c r="AH142" s="11"/>
+      <c r="AI142" s="11"/>
+      <c r="AJ142" s="11"/>
+      <c r="AK142" s="11"/>
+      <c r="AL142" s="11"/>
+      <c r="AM142" s="11"/>
+      <c r="AN142" s="11"/>
+      <c r="AO142" s="11"/>
+      <c r="AP142" s="11"/>
+      <c r="AQ142" s="11"/>
+      <c r="AR142" s="11"/>
+      <c r="AS142" s="11"/>
+      <c r="AT142" s="11"/>
+      <c r="AU142" s="11"/>
+      <c r="AV142" s="11"/>
+    </row>
     <row r="143" ht="15.75" customHeight="1"/>
     <row r="144" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
